--- a/outputs-HGR-r202-archive/o__Actinomycetales_train.xlsx
+++ b/outputs-HGR-r202-archive/o__Actinomycetales_train.xlsx
@@ -507,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,68 +1506,68 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000411415_2.fasta</t>
+          <t>label_GCF_000308055_4.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4764904668733502</v>
+        <v>0.981357746232668</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005888925484830739</v>
+        <v>0.008954159953780806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0313207276321238</v>
+        <v>0.008719880183995025</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0824214077665065</v>
+        <v>0.0003113043654863506</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3959640162632134</v>
+        <v>2.220300628836284e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003948367596051417</v>
+        <v>2.220300628836284e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003966088383923943</v>
+        <v>0.0006569092640253975</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4764904668733502</v>
+        <v>0.981357746232668</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_1.fasta</t>
+          <t>label_UMGS1548_100.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.983281353725756</v>
+        <v>0.9851190005072084</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004977360572955862</v>
+        <v>0.001946393875376403</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003389628086159595</v>
+        <v>0.005836254374762545</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002632344213979349</v>
+        <v>0.002878196067234521</v>
       </c>
       <c r="F29" t="n">
-        <v>2.220391901827754e-14</v>
+        <v>2.220378072339454e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.220391901827754e-14</v>
+        <v>2.220378072339454e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01019893791676521</v>
+        <v>0.004220155175373909</v>
       </c>
       <c r="I29" t="n">
-        <v>0.983281353725756</v>
+        <v>0.9851190005072084</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1578,32 +1578,32 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_115.fasta</t>
+          <t>label_UMGS1548_108.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9267594382499212</v>
+        <v>0.9721573433863049</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005693442866153672</v>
+        <v>0.003221467473854368</v>
       </c>
       <c r="D30" t="n">
-        <v>0.008924298409915231</v>
+        <v>0.01664598799650778</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004526042732989134</v>
+        <v>0.006360144206422771</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04378667342165741</v>
+        <v>2.220434845921923e-14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003524404935745696</v>
+        <v>2.220434845921923e-14</v>
       </c>
       <c r="H30" t="n">
-        <v>0.006785699383617662</v>
+        <v>0.001615056936865794</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9267594382499212</v>
+        <v>0.9721573433863049</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1614,32 +1614,32 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_148.fasta</t>
+          <t>label_UMGS1548_127.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9898648061012981</v>
+        <v>0.9746029592065124</v>
       </c>
       <c r="C31" t="n">
-        <v>0.002127459589752919</v>
+        <v>0.006995188512937987</v>
       </c>
       <c r="D31" t="n">
-        <v>0.006119913820538923</v>
+        <v>0.008471869368914036</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0005486551068039765</v>
+        <v>0.007778059106098655</v>
       </c>
       <c r="F31" t="n">
-        <v>2.220206581247659e-14</v>
+        <v>2.220585646182478e-14</v>
       </c>
       <c r="G31" t="n">
-        <v>2.220206581247659e-14</v>
+        <v>2.220585646182478e-14</v>
       </c>
       <c r="H31" t="n">
-        <v>0.001339165381561449</v>
+        <v>0.002151923805492453</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9898648061012981</v>
+        <v>0.9746029592065124</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1650,32 +1650,32 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_41.fasta</t>
+          <t>label_UMGS1719_13.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9731630901112608</v>
+        <v>0.9721444872400357</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002356091604726663</v>
+        <v>0.005788527182457519</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01876071088104374</v>
+        <v>0.02104764055337031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005461544215753226</v>
+        <v>0.0002011231555088122</v>
       </c>
       <c r="F32" t="n">
-        <v>2.220400533036678e-14</v>
+        <v>2.220253648031989e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>2.220400533036678e-14</v>
+        <v>2.220253648031989e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002379045631425286</v>
+        <v>0.0008182218685832709</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9731630901112608</v>
+        <v>0.9721444872400357</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1686,32 +1686,32 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_96.fasta</t>
+          <t>label_UMGS1719_15.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9620596703051153</v>
+        <v>0.9712860670175022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0008643975501397942</v>
+        <v>0.001524876857652103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01954143779174173</v>
+        <v>0.02699110299574959</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00640977060269786</v>
+        <v>0.0001733645258467359</v>
       </c>
       <c r="F33" t="n">
-        <v>2.221227230020518e-14</v>
+        <v>2.219512683508428e-14</v>
       </c>
       <c r="G33" t="n">
-        <v>2.221227230020518e-14</v>
+        <v>2.219512683508428e-14</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01112472375026092</v>
+        <v>2.458860320476466e-05</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9620596703051153</v>
+        <v>0.9712860670175022</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1722,32 +1722,32 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_41.fasta</t>
+          <t>label_UMGS1731_28.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9184042192723878</v>
+        <v>0.8900927332073602</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03002536480896296</v>
+        <v>0.005478148976416466</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04846872417937167</v>
+        <v>0.007751956811302988</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00214271042455747</v>
+        <v>0.0006020438905204241</v>
       </c>
       <c r="F34" t="n">
-        <v>2.7078190936887e-14</v>
+        <v>2.220425065143808e-14</v>
       </c>
       <c r="G34" t="n">
-        <v>2.804182328416081e-14</v>
+        <v>2.220425065143808e-14</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0009589813146651421</v>
+        <v>0.09607511711435555</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9184042192723878</v>
+        <v>0.8900927332073602</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1758,32 +1758,32 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_55.fasta</t>
+          <t>label_UMGS1731_67.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9721923233838548</v>
+        <v>0.9446251077163553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01608576852593659</v>
+        <v>0.02801539603609302</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006814394196709079</v>
+        <v>0.005213194264554381</v>
       </c>
       <c r="E35" t="n">
-        <v>0.003403569381567459</v>
+        <v>0.0005683592908161905</v>
       </c>
       <c r="F35" t="n">
-        <v>2.220202788280705e-14</v>
+        <v>2.220840027483319e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>2.220202788280705e-14</v>
+        <v>2.220840027483319e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0.001503944511887695</v>
+        <v>0.02157794269213656</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9721923233838548</v>
+        <v>0.9446251077163553</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1794,32 +1794,32 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_85.fasta</t>
+          <t>label_UMGS1731_83.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.91845475582967</v>
+        <v>0.918976736289975</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07865012868455921</v>
+        <v>0.0208384530279794</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002167665272571615</v>
+        <v>0.007354257539895633</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0004697836367171702</v>
+        <v>0.0008970125247881471</v>
       </c>
       <c r="F36" t="n">
-        <v>2.217927486842525e-14</v>
+        <v>2.221061158417445e-14</v>
       </c>
       <c r="G36" t="n">
-        <v>2.217927486842525e-14</v>
+        <v>2.221061158417445e-14</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0002576665764378222</v>
+        <v>0.05193354061731736</v>
       </c>
       <c r="I36" t="n">
-        <v>0.91845475582967</v>
+        <v>0.918976736289975</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1830,32 +1830,32 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_20.fasta</t>
+          <t>label_UMGS1934_50.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9678480170154682</v>
+        <v>0.9573471059298728</v>
       </c>
       <c r="C37" t="n">
-        <v>0.009215545930642036</v>
+        <v>0.001955510323296554</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01847020814061808</v>
+        <v>0.04015494888334235</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003244564014321756</v>
+        <v>0.0005150412357462689</v>
       </c>
       <c r="F37" t="n">
-        <v>2.220729747967353e-14</v>
+        <v>2.21963071241101e-14</v>
       </c>
       <c r="G37" t="n">
-        <v>2.220729747967353e-14</v>
+        <v>2.21963071241101e-14</v>
       </c>
       <c r="H37" t="n">
-        <v>0.004141772511795121</v>
+        <v>2.739362769764143e-05</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9678480170154682</v>
+        <v>0.9573471059298728</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1866,32 +1866,32 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_37.fasta</t>
+          <t>label_UMGS2071_23.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9502637027974381</v>
+        <v>0.980991476194371</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002993717299504639</v>
+        <v>0.00884058727969411</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01928664489810147</v>
+        <v>0.008806314715986334</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0007003817476672143</v>
+        <v>0.001331795530479124</v>
       </c>
       <c r="F38" t="n">
-        <v>2.221417417472827e-14</v>
+        <v>2.220519680055551e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>2.221417417472827e-14</v>
+        <v>2.220519680055551e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0.02675555325724412</v>
+        <v>2.982627942495667e-05</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9502637027974381</v>
+        <v>0.980991476194371</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1902,32 +1902,32 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_70.fasta</t>
+          <t>label_UMGS2071_30.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9547855628585501</v>
+        <v>0.9797947175647564</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01429469514664467</v>
+        <v>0.005525846328409505</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01405515370508907</v>
+        <v>0.00865574496885691</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0004005483276777751</v>
+        <v>0.003855394516140537</v>
       </c>
       <c r="F39" t="n">
-        <v>2.221807339158607e-14</v>
+        <v>2.220258101434625e-14</v>
       </c>
       <c r="G39" t="n">
-        <v>2.221807339158607e-14</v>
+        <v>2.220258101434625e-14</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01646403996199396</v>
+        <v>0.002168296621792221</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9547855628585501</v>
+        <v>0.9797947175647564</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1938,32 +1938,32 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_131.fasta</t>
+          <t>label_UMGS2071_47.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8097741988339358</v>
+        <v>0.9833466407893909</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1623608870183174</v>
+        <v>0.006183357944013279</v>
       </c>
       <c r="D40" t="n">
-        <v>0.008537224042557582</v>
+        <v>0.004719319084790407</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000867909831563361</v>
+        <v>0.003933863625985669</v>
       </c>
       <c r="F40" t="n">
-        <v>2.22135747808394e-14</v>
+        <v>2.220454028800964e-14</v>
       </c>
       <c r="G40" t="n">
-        <v>2.22135747808394e-14</v>
+        <v>2.220454028800964e-14</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0184597802735814</v>
+        <v>0.001816818555775354</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8097741988339358</v>
+        <v>0.9833466407893909</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1974,32 +1974,32 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_19.fasta</t>
+          <t>label_UMGS242_10.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.8421132868415634</v>
+        <v>0.9042787959812929</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01989416711439037</v>
+        <v>0.001155406223382304</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03928544066609976</v>
+        <v>0.006094774245797132</v>
       </c>
       <c r="E41" t="n">
-        <v>0.005653057016312324</v>
+        <v>0.05151411094711036</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08551275169335847</v>
+        <v>2.222502818560578e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003762036559455559</v>
+        <v>2.222502818560578e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003779260108819974</v>
+        <v>0.03695691260237287</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8421132868415634</v>
+        <v>0.9042787959812929</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2010,32 +2010,32 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_15.fasta</t>
+          <t>label_UMGS252_7.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9515580729101498</v>
+        <v>0.9736948589333331</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0002787598112781531</v>
+        <v>5.087689466166022e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04175698800024605</v>
+        <v>0.01478822584444991</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006393770210992107</v>
+        <v>0.01145179898894223</v>
       </c>
       <c r="F42" t="n">
-        <v>2.219837775867251e-14</v>
+        <v>2.220727537367816e-14</v>
       </c>
       <c r="G42" t="n">
-        <v>2.219837775867251e-14</v>
+        <v>2.220727537367816e-14</v>
       </c>
       <c r="H42" t="n">
-        <v>1.240906728968801e-05</v>
+        <v>1.423933856874366e-05</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9515580729101498</v>
+        <v>0.9736948589333331</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2046,32 +2046,32 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_29.fasta</t>
+          <t>label_UMGS402_2.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9516318832070089</v>
+        <v>0.7171761511744196</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03730744076977838</v>
+        <v>0.1068375902337654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00902276471881744</v>
+        <v>0.04219925932706455</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0002420046449093342</v>
+        <v>0.1208500284786141</v>
       </c>
       <c r="F43" t="n">
-        <v>2.220376764764344e-14</v>
+        <v>7.934543098285189e-14</v>
       </c>
       <c r="G43" t="n">
-        <v>2.220376764764344e-14</v>
+        <v>7.93454309828519e-14</v>
       </c>
       <c r="H43" t="n">
-        <v>0.001795906659441548</v>
+        <v>0.01293697078597805</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9516318832070089</v>
+        <v>0.7171761511744196</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2082,32 +2082,32 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS402_23.fasta</t>
+          <t>label_UMGS402_42.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9297828954060751</v>
+        <v>0.7535802230112904</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01233815340026252</v>
+        <v>0.002949690747509973</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01570439331313115</v>
+        <v>0.006554069304345872</v>
       </c>
       <c r="E44" t="n">
-        <v>0.008809816662880894</v>
+        <v>0.0004112842658919511</v>
       </c>
       <c r="F44" t="n">
-        <v>2.284648172430527e-14</v>
+        <v>2.221250279928776e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>2.294961139497888e-14</v>
+        <v>2.221250279928776e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03336474121760453</v>
+        <v>0.2365047326709174</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9297828954060751</v>
+        <v>0.7535802230112904</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2118,32 +2118,32 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_46.fasta</t>
+          <t>label_UMGS492_93.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9267079339126014</v>
+        <v>0.9627943827960489</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05730832602319508</v>
+        <v>0.01503456861052686</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01258277499560643</v>
+        <v>0.002507633790839919</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0004088661527713893</v>
+        <v>0.0001735664010547401</v>
       </c>
       <c r="F45" t="n">
-        <v>2.220596099890445e-14</v>
+        <v>2.220751577334385e-14</v>
       </c>
       <c r="G45" t="n">
-        <v>2.220596099890445e-14</v>
+        <v>2.220751577334385e-14</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002992098915781316</v>
+        <v>0.0194898484014852</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9267079339126014</v>
+        <v>0.9627943827960489</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2154,32 +2154,32 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_3.fasta</t>
+          <t>label_UMGS492_99.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9729926044721134</v>
+        <v>0.9043834324179143</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0003180970376072361</v>
+        <v>0.01476007152447482</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003352672160859542</v>
+        <v>0.005819822758125616</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01562965261869793</v>
+        <v>0.0002696725915370432</v>
       </c>
       <c r="F46" t="n">
-        <v>2.220594528401455e-14</v>
+        <v>2.221001498272766e-14</v>
       </c>
       <c r="G46" t="n">
-        <v>2.220594528401455e-14</v>
+        <v>2.221001498272766e-14</v>
       </c>
       <c r="H46" t="n">
-        <v>0.007706973710677453</v>
+        <v>0.07476700070790381</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9729926044721134</v>
+        <v>0.9043834324179143</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2190,32 +2190,32 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS822_12.fasta</t>
+          <t>label_UMGS520_46.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9079154945045165</v>
+        <v>0.9834577412328371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08599696602989003</v>
+        <v>0.0002007160132205274</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005710183965504182</v>
+        <v>0.01026357447254635</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0003368206455912387</v>
+        <v>0.004199116188577843</v>
       </c>
       <c r="F47" t="n">
-        <v>2.219028248339013e-14</v>
+        <v>2.220363925603845e-14</v>
       </c>
       <c r="G47" t="n">
-        <v>2.219028248339013e-14</v>
+        <v>2.220363925603845e-14</v>
       </c>
       <c r="H47" t="n">
-        <v>4.053485445389525e-05</v>
+        <v>0.001878852092773522</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9079154945045165</v>
+        <v>0.9834577412328371</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2226,32 +2226,32 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS822_19.fasta</t>
+          <t>label_UMGS520_81.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5754243162725374</v>
+        <v>0.9170052124996293</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4214067428851601</v>
+        <v>0.003319762457682245</v>
       </c>
       <c r="D48" t="n">
-        <v>0.003067808232754525</v>
+        <v>0.0145306223258832</v>
       </c>
       <c r="E48" t="n">
-        <v>7.969922708829146e-05</v>
+        <v>0.02724508104204412</v>
       </c>
       <c r="F48" t="n">
-        <v>2.224197923204202e-14</v>
+        <v>2.742083822975319e-14</v>
       </c>
       <c r="G48" t="n">
-        <v>2.224197923204202e-14</v>
+        <v>2.74208382297532e-14</v>
       </c>
       <c r="H48" t="n">
-        <v>2.14333824151868e-05</v>
+        <v>0.03789932167470625</v>
       </c>
       <c r="I48" t="n">
-        <v>0.5754243162725374</v>
+        <v>0.9170052124996293</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2262,32 +2262,32 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_27.fasta</t>
+          <t>label_UMGS822_1.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9725276652772804</v>
+        <v>0.6926526599433498</v>
       </c>
       <c r="C49" t="n">
-        <v>7.658474439852851e-05</v>
+        <v>0.07088921704882037</v>
       </c>
       <c r="D49" t="n">
-        <v>0.01260907684931776</v>
+        <v>0.2106618007333467</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01056521430399638</v>
+        <v>0.0244265227721067</v>
       </c>
       <c r="F49" t="n">
-        <v>2.220899670454449e-14</v>
+        <v>6.266458847910327e-13</v>
       </c>
       <c r="G49" t="n">
-        <v>2.220899670454449e-14</v>
+        <v>6.266458847910327e-13</v>
       </c>
       <c r="H49" t="n">
-        <v>0.004221458824962636</v>
+        <v>0.001369799501123152</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9725276652772804</v>
+        <v>0.6926526599433498</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2298,32 +2298,32 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_81.fasta</t>
+          <t>label_UMGS822_5.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9809849294881866</v>
+        <v>0.580916202350896</v>
       </c>
       <c r="C50" t="n">
-        <v>0.001700408852673343</v>
+        <v>0.08295175282253089</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01119762435498548</v>
+        <v>0.2605936236955834</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004657031652968146</v>
+        <v>0.06767666032128368</v>
       </c>
       <c r="F50" t="n">
-        <v>2.22044411971635e-14</v>
+        <v>1.217327725736225e-12</v>
       </c>
       <c r="G50" t="n">
-        <v>2.22044411971635e-14</v>
+        <v>1.217327725736225e-12</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001460005651142185</v>
+        <v>0.007861760807271308</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9809849294881866</v>
+        <v>0.580916202350896</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2334,32 +2334,32 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_87.fasta</t>
+          <t>label_UMGS956_43.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.8023260920851579</v>
+        <v>0.9803664055297773</v>
       </c>
       <c r="C51" t="n">
-        <v>0.003126359818549384</v>
+        <v>0.0002631287647803037</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01915263615579612</v>
+        <v>0.00910700033540969</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1722070981632421</v>
+        <v>0.001812763401246199</v>
       </c>
       <c r="F51" t="n">
-        <v>2.274052304932589e-14</v>
+        <v>2.220538411757494e-14</v>
       </c>
       <c r="G51" t="n">
-        <v>2.282108377086992e-14</v>
+        <v>2.220538411757494e-14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.003187813777208976</v>
+        <v>0.008450701968742137</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8023260920851579</v>
+        <v>0.9803664055297773</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2370,32 +2370,32 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000308055_4.fasta</t>
+          <t>label_GCF_000820725_101.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.981357746232668</v>
+        <v>0.9292255538661461</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008954159953780806</v>
+        <v>0.001777099365007133</v>
       </c>
       <c r="D52" t="n">
-        <v>0.008719880183995025</v>
+        <v>0.005581771491566524</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0003113043654863506</v>
+        <v>0.0001303496162397417</v>
       </c>
       <c r="F52" t="n">
-        <v>2.220300628836284e-14</v>
+        <v>3.350348841024654e-14</v>
       </c>
       <c r="G52" t="n">
-        <v>2.220300628836284e-14</v>
+        <v>3.605332847567683e-14</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0006569092640253975</v>
+        <v>0.06328522566097088</v>
       </c>
       <c r="I52" t="n">
-        <v>0.981357746232668</v>
+        <v>0.9292255538661461</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2406,32 +2406,32 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_100.fasta</t>
+          <t>label_GCF_000820725_103.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9851190005072084</v>
+        <v>0.9995329282182274</v>
       </c>
       <c r="C53" t="n">
-        <v>0.001946393875376403</v>
+        <v>0.0004576160379029727</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005836254374762545</v>
+        <v>6.345595401722776e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002878196067234521</v>
+        <v>1.894162530867102e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>2.220378072339454e-14</v>
+        <v>2.220280868931425e-14</v>
       </c>
       <c r="G53" t="n">
-        <v>2.220378072339454e-14</v>
+        <v>2.220280868931425e-14</v>
       </c>
       <c r="H53" t="n">
-        <v>0.004220155175373909</v>
+        <v>1.215985892764545e-06</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9851190005072084</v>
+        <v>0.9995329282182274</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2442,68 +2442,68 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_108.fasta</t>
+          <t>label_GCF_000820725_119.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9721573433863049</v>
+        <v>0.4009024540135849</v>
       </c>
       <c r="C54" t="n">
-        <v>0.003221467473854368</v>
+        <v>0.007691463183077778</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01664598799650778</v>
+        <v>0.01000704894100981</v>
       </c>
       <c r="E54" t="n">
-        <v>0.006360144206422771</v>
+        <v>0.005007714209853114</v>
       </c>
       <c r="F54" t="n">
-        <v>2.220434845921923e-14</v>
+        <v>0.5173427569530991</v>
       </c>
       <c r="G54" t="n">
-        <v>2.220434845921923e-14</v>
+        <v>0.004099484863935673</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001615056936865794</v>
+        <v>0.05494907783543965</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9721573433863049</v>
+        <v>0.5173427569530991</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_127.fasta</t>
+          <t>label_GCF_000820725_129.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9746029592065124</v>
+        <v>0.9768721309081762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.006995188512937987</v>
+        <v>2.644037912315042e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.008471869368914036</v>
+        <v>0.0007410324190627242</v>
       </c>
       <c r="E55" t="n">
-        <v>0.007778059106098655</v>
+        <v>0.0004078845549547216</v>
       </c>
       <c r="F55" t="n">
-        <v>2.220585646182478e-14</v>
+        <v>2.223107791125798e-14</v>
       </c>
       <c r="G55" t="n">
-        <v>2.220585646182478e-14</v>
+        <v>2.223206310286396e-14</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002151923805492453</v>
+        <v>0.0219525117386388</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9746029592065124</v>
+        <v>0.9768721309081762</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2514,68 +2514,68 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_13.fasta</t>
+          <t>label_GCF_000820725_178.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9721444872400357</v>
+        <v>0.01252195364174362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.005788527182457519</v>
+        <v>0.00930528602096122</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02104764055337031</v>
+        <v>0.05572794683401949</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0002011231555088122</v>
+        <v>0.05093540839719313</v>
       </c>
       <c r="F56" t="n">
-        <v>2.220253648031989e-14</v>
+        <v>0.8625500216694834</v>
       </c>
       <c r="G56" t="n">
-        <v>2.220253648031989e-14</v>
+        <v>0.00433035913741216</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0008182218685832709</v>
+        <v>0.00462902429918705</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9721444872400357</v>
+        <v>0.8625500216694834</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_15.fasta</t>
+          <t>label_GCF_000820725_39.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9712860670175022</v>
+        <v>0.9929925584684867</v>
       </c>
       <c r="C57" t="n">
-        <v>0.001524876857652103</v>
+        <v>0.0005949479849989832</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02699110299574959</v>
+        <v>0.0008605338436574511</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0001733645258467359</v>
+        <v>0.000285389535464381</v>
       </c>
       <c r="F57" t="n">
-        <v>2.219512683508428e-14</v>
+        <v>4.549393835044682e-14</v>
       </c>
       <c r="G57" t="n">
-        <v>2.219512683508428e-14</v>
+        <v>5.146696848163335e-14</v>
       </c>
       <c r="H57" t="n">
-        <v>2.458860320476466e-05</v>
+        <v>0.005266570167295342</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9712860670175022</v>
+        <v>0.9929925584684867</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2586,32 +2586,32 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_28.fasta</t>
+          <t>label_UMGS1719_97.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8900927332073602</v>
+        <v>0.9096144537084943</v>
       </c>
       <c r="C58" t="n">
-        <v>0.005478148976416466</v>
+        <v>0.08564718964413026</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007751956811302988</v>
+        <v>0.0024510233373195</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0006020438905204241</v>
+        <v>0.002236959284030005</v>
       </c>
       <c r="F58" t="n">
-        <v>2.220425065143808e-14</v>
+        <v>2.219997047670162e-14</v>
       </c>
       <c r="G58" t="n">
-        <v>2.220425065143808e-14</v>
+        <v>2.219997047670162e-14</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09607511711435555</v>
+        <v>5.037402598153665e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8900927332073602</v>
+        <v>0.9096144537084943</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2622,32 +2622,32 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_67.fasta</t>
+          <t>label_UMGS1731_18.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9446251077163553</v>
+        <v>0.9861218756995556</v>
       </c>
       <c r="C59" t="n">
-        <v>0.02801539603609302</v>
+        <v>0.0047128620780413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.005213194264554381</v>
+        <v>0.008472641739444153</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0005683592908161905</v>
+        <v>2.098487338684669e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2.220840027483319e-14</v>
+        <v>2.220308521999884e-14</v>
       </c>
       <c r="G59" t="n">
-        <v>2.220840027483319e-14</v>
+        <v>2.220308521999884e-14</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02157794269213656</v>
+        <v>0.0006905219955758786</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9446251077163553</v>
+        <v>0.9861218756995556</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2658,32 +2658,32 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_83.fasta</t>
+          <t>label_UMGS1731_53.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.918976736289975</v>
+        <v>0.6673692688154779</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0208384530279794</v>
+        <v>0.02650824788722805</v>
       </c>
       <c r="D60" t="n">
-        <v>0.007354257539895633</v>
+        <v>0.0185214476689254</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0008970125247881471</v>
+        <v>0.003675483746075365</v>
       </c>
       <c r="F60" t="n">
-        <v>2.221061158417445e-14</v>
+        <v>0.1624540540043796</v>
       </c>
       <c r="G60" t="n">
-        <v>2.221061158417445e-14</v>
+        <v>0.003645610771991149</v>
       </c>
       <c r="H60" t="n">
-        <v>0.05193354061731736</v>
+        <v>0.1178258871059224</v>
       </c>
       <c r="I60" t="n">
-        <v>0.918976736289975</v>
+        <v>0.6673692688154779</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2694,32 +2694,32 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_50.fasta</t>
+          <t>label_UMGS1934_111.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9573471059298728</v>
+        <v>0.976387809093241</v>
       </c>
       <c r="C61" t="n">
-        <v>0.001955510323296554</v>
+        <v>0.01358963393151272</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04015494888334235</v>
+        <v>0.009518275041605741</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0005150412357462689</v>
+        <v>7.798664233147761e-05</v>
       </c>
       <c r="F61" t="n">
-        <v>2.21963071241101e-14</v>
+        <v>2.754562351948791e-14</v>
       </c>
       <c r="G61" t="n">
-        <v>2.21963071241101e-14</v>
+        <v>2.86104707650113e-14</v>
       </c>
       <c r="H61" t="n">
-        <v>2.739362769764143e-05</v>
+        <v>0.0004262952912529732</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9573471059298728</v>
+        <v>0.976387809093241</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2730,32 +2730,32 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_23.fasta</t>
+          <t>label_UMGS1934_129.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.980991476194371</v>
+        <v>0.8657135548186599</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00884058727969411</v>
+        <v>0.1243316682645939</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008806314715986334</v>
+        <v>0.008682363645801114</v>
       </c>
       <c r="E62" t="n">
-        <v>0.001331795530479124</v>
+        <v>8.844110047804283e-05</v>
       </c>
       <c r="F62" t="n">
-        <v>2.220519680055551e-14</v>
+        <v>3.026205155393314e-14</v>
       </c>
       <c r="G62" t="n">
-        <v>2.220519680055551e-14</v>
+        <v>3.195515301388386e-14</v>
       </c>
       <c r="H62" t="n">
-        <v>2.982627942495667e-05</v>
+        <v>0.001183972170404775</v>
       </c>
       <c r="I62" t="n">
-        <v>0.980991476194371</v>
+        <v>0.8657135548186599</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2766,32 +2766,32 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_30.fasta</t>
+          <t>label_UMGS1934_138.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9797947175647564</v>
+        <v>0.9538965740499162</v>
       </c>
       <c r="C63" t="n">
-        <v>0.005525846328409505</v>
+        <v>0.03920070207218833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00865574496885691</v>
+        <v>0.005087387284416642</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003855394516140537</v>
+        <v>4.022559394077774e-05</v>
       </c>
       <c r="F63" t="n">
-        <v>2.220258101434625e-14</v>
+        <v>2.222198652462618e-14</v>
       </c>
       <c r="G63" t="n">
-        <v>2.220258101434625e-14</v>
+        <v>2.222264247030309e-14</v>
       </c>
       <c r="H63" t="n">
-        <v>0.002168296621792221</v>
+        <v>0.00177511099949372</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9797947175647564</v>
+        <v>0.9538965740499162</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2802,32 +2802,32 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_47.fasta</t>
+          <t>label_UMGS1934_58.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9833466407893909</v>
+        <v>0.9913195336282415</v>
       </c>
       <c r="C64" t="n">
-        <v>0.006183357944013279</v>
+        <v>0.005022860552166356</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004719319084790407</v>
+        <v>0.003620074093947333</v>
       </c>
       <c r="E64" t="n">
-        <v>0.003933863625985669</v>
+        <v>1.348102801891983e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>2.220454028800964e-14</v>
+        <v>2.220264680683611e-14</v>
       </c>
       <c r="G64" t="n">
-        <v>2.220454028800964e-14</v>
+        <v>2.220264680683611e-14</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001816818555775354</v>
+        <v>3.618362279838622e-05</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9833466407893909</v>
+        <v>0.9913195336282415</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2838,32 +2838,32 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS242_10.fasta</t>
+          <t>label_UMGS1934_64.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9042787959812929</v>
+        <v>0.9838989650063125</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001155406223382304</v>
+        <v>0.00823917066581609</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006094774245797132</v>
+        <v>0.007628127715854436</v>
       </c>
       <c r="E65" t="n">
-        <v>0.05151411094711036</v>
+        <v>0.0002191765976393741</v>
       </c>
       <c r="F65" t="n">
-        <v>2.222502818560578e-14</v>
+        <v>2.818692224237706e-14</v>
       </c>
       <c r="G65" t="n">
-        <v>2.222502818560578e-14</v>
+        <v>2.938007122113263e-14</v>
       </c>
       <c r="H65" t="n">
-        <v>0.03695691260237287</v>
+        <v>1.456001432008068e-05</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9042787959812929</v>
+        <v>0.9838989650063125</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2874,32 +2874,32 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_7.fasta</t>
+          <t>label_UMGS1934_67.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9736948589333331</v>
+        <v>0.9801337198295036</v>
       </c>
       <c r="C66" t="n">
-        <v>5.087689466166022e-05</v>
+        <v>0.006588309336443244</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01478822584444991</v>
+        <v>0.01315565178909052</v>
       </c>
       <c r="E66" t="n">
-        <v>0.01145179898894223</v>
+        <v>7.353498008016408e-05</v>
       </c>
       <c r="F66" t="n">
-        <v>2.220727537367816e-14</v>
+        <v>2.344432860064191e-14</v>
       </c>
       <c r="G66" t="n">
-        <v>2.220727537367816e-14</v>
+        <v>2.364236714588185e-14</v>
       </c>
       <c r="H66" t="n">
-        <v>1.423933856874366e-05</v>
+        <v>4.878406483526908e-05</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9736948589333331</v>
+        <v>0.9801337198295036</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2910,32 +2910,32 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS402_2.fasta</t>
+          <t>label_UMGS2071_37.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.7171761511744196</v>
+        <v>0.9640954759685633</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1068375902337654</v>
+        <v>0.01025216603606819</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04219925932706455</v>
+        <v>0.004015516640838817</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1208500284786141</v>
+        <v>0.01944569044578446</v>
       </c>
       <c r="F67" t="n">
-        <v>7.934543098285189e-14</v>
+        <v>2.488047179353301e-14</v>
       </c>
       <c r="G67" t="n">
-        <v>7.93454309828519e-14</v>
+        <v>2.537465128335401e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>0.01293697078597805</v>
+        <v>0.002191150908694909</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7171761511744196</v>
+        <v>0.9640954759685633</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2946,32 +2946,32 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS402_42.fasta</t>
+          <t>label_UMGS252_1.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.7535802230112904</v>
+        <v>0.9799973025878881</v>
       </c>
       <c r="C68" t="n">
-        <v>0.002949690747509973</v>
+        <v>0.0002123820092131716</v>
       </c>
       <c r="D68" t="n">
-        <v>0.006554069304345872</v>
+        <v>0.01536425828032446</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0004112842658919511</v>
+        <v>0.004388463573500747</v>
       </c>
       <c r="F68" t="n">
-        <v>2.221250279928776e-14</v>
+        <v>2.404966445623118e-14</v>
       </c>
       <c r="G68" t="n">
-        <v>2.221250279928776e-14</v>
+        <v>2.436055468450302e-14</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2365047326709174</v>
+        <v>3.759354902506913e-05</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7535802230112904</v>
+        <v>0.9799973025878881</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -2982,32 +2982,32 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_93.fasta</t>
+          <t>label_UMGS252_11.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9627943827960489</v>
+        <v>0.8079973348806831</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01503456861052686</v>
+        <v>0.00649996917598236</v>
       </c>
       <c r="D69" t="n">
-        <v>0.002507633790839919</v>
+        <v>0.02184154613197129</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001735664010547401</v>
+        <v>0.006707626532153109</v>
       </c>
       <c r="F69" t="n">
-        <v>2.220751577334385e-14</v>
+        <v>0.1483329881637287</v>
       </c>
       <c r="G69" t="n">
-        <v>2.220751577334385e-14</v>
+        <v>0.004291709564983838</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0194898484014852</v>
+        <v>0.004328825550497562</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9627943827960489</v>
+        <v>0.8079973348806831</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3018,32 +3018,32 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_99.fasta</t>
+          <t>label_UMGS252_25.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9043834324179143</v>
+        <v>0.9823010017845208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01476007152447482</v>
+        <v>0.000484492326503581</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005819822758125616</v>
+        <v>0.01719281572642813</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0002696725915370432</v>
+        <v>1.49540600507077e-05</v>
       </c>
       <c r="F70" t="n">
-        <v>2.221001498272766e-14</v>
+        <v>2.21976526322158e-14</v>
       </c>
       <c r="G70" t="n">
-        <v>2.221001498272766e-14</v>
+        <v>2.21976526322158e-14</v>
       </c>
       <c r="H70" t="n">
-        <v>0.07476700070790381</v>
+        <v>6.736102452292652e-06</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9043834324179143</v>
+        <v>0.9823010017845208</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3054,32 +3054,32 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_46.fasta</t>
+          <t>label_UMGS252_33.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9834577412328371</v>
+        <v>0.8956580506361624</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0002007160132205274</v>
+        <v>0.09477684675143763</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01026357447254635</v>
+        <v>0.008348304440636908</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004199116188577843</v>
+        <v>6.198636282373189e-05</v>
       </c>
       <c r="F71" t="n">
-        <v>2.220363925603845e-14</v>
+        <v>2.80760076236158e-14</v>
       </c>
       <c r="G71" t="n">
-        <v>2.220363925603845e-14</v>
+        <v>2.926577600955485e-14</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001878852092773522</v>
+        <v>0.001154811808881907</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9834577412328371</v>
+        <v>0.8956580506361624</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3090,32 +3090,32 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_81.fasta</t>
+          <t>label_UMGS252_4.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9170052124996293</v>
+        <v>0.9845509870224215</v>
       </c>
       <c r="C72" t="n">
-        <v>0.003319762457682245</v>
+        <v>0.0003442035302265561</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0145306223258832</v>
+        <v>0.0127476282327954</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02724508104204412</v>
+        <v>0.002351773610574563</v>
       </c>
       <c r="F72" t="n">
-        <v>2.742083822975319e-14</v>
+        <v>2.219951904673579e-14</v>
       </c>
       <c r="G72" t="n">
-        <v>2.74208382297532e-14</v>
+        <v>2.219951904673579e-14</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03789932167470625</v>
+        <v>5.407603937682044e-06</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9170052124996293</v>
+        <v>0.9845509870224215</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3126,32 +3126,32 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS822_1.fasta</t>
+          <t>label_UMGS402_40.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6926526599433498</v>
+        <v>0.8717154022188827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07088921704882037</v>
+        <v>0.02572663381229716</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2106618007333467</v>
+        <v>0.01709892908325322</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0244265227721067</v>
+        <v>0.003119883962871482</v>
       </c>
       <c r="F73" t="n">
-        <v>6.266458847910327e-13</v>
+        <v>0.05481144884534659</v>
       </c>
       <c r="G73" t="n">
-        <v>6.266458847910327e-13</v>
+        <v>0.003099585322203235</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001369799501123152</v>
+        <v>0.02442811675514557</v>
       </c>
       <c r="I73" t="n">
-        <v>0.6926526599433498</v>
+        <v>0.8717154022188827</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3162,32 +3162,32 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS822_5.fasta</t>
+          <t>label_UMGS492_50.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.580916202350896</v>
+        <v>0.9726743141050208</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08295175282253089</v>
+        <v>0.0160196113465059</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2605936236955834</v>
+        <v>0.01006363905531582</v>
       </c>
       <c r="E74" t="n">
-        <v>0.06767666032128368</v>
+        <v>1.838060551590157e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>1.217327725736225e-12</v>
+        <v>2.220514651176649e-14</v>
       </c>
       <c r="G74" t="n">
-        <v>1.217327725736225e-12</v>
+        <v>2.220514651176649e-14</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007861760807271308</v>
+        <v>0.001224054887597232</v>
       </c>
       <c r="I74" t="n">
-        <v>0.580916202350896</v>
+        <v>0.9726743141050208</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3198,32 +3198,32 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_43.fasta</t>
+          <t>label_UMGS520_83.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9803664055297773</v>
+        <v>0.9882414423240378</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0002631287647803037</v>
+        <v>0.008582376512971409</v>
       </c>
       <c r="D75" t="n">
-        <v>0.00910700033540969</v>
+        <v>0.002496430340567095</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001812763401246199</v>
+        <v>0.0002521262538462994</v>
       </c>
       <c r="F75" t="n">
-        <v>2.220538411757494e-14</v>
+        <v>2.220167138026749e-14</v>
       </c>
       <c r="G75" t="n">
-        <v>2.220538411757494e-14</v>
+        <v>2.220167138026749e-14</v>
       </c>
       <c r="H75" t="n">
-        <v>0.008450701968742137</v>
+        <v>0.0004276245685330357</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9803664055297773</v>
+        <v>0.9882414423240378</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3234,32 +3234,32 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_101.fasta</t>
+          <t>label_UMGS956_41.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9292255538661461</v>
+        <v>0.9876363889950661</v>
       </c>
       <c r="C76" t="n">
-        <v>0.001777099365007133</v>
+        <v>0.000328539300217866</v>
       </c>
       <c r="D76" t="n">
-        <v>0.005581771491566524</v>
+        <v>0.007648810821015056</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0001303496162397417</v>
+        <v>2.64390776948307e-05</v>
       </c>
       <c r="F76" t="n">
-        <v>3.350348841024654e-14</v>
+        <v>2.220345294720751e-14</v>
       </c>
       <c r="G76" t="n">
-        <v>3.605332847567683e-14</v>
+        <v>2.220345294720751e-14</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06328522566097088</v>
+        <v>0.004359821805961877</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9292255538661461</v>
+        <v>0.9876363889950661</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3270,32 +3270,32 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_103.fasta</t>
+          <t>label_UMGS956_71.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9995329282182274</v>
+        <v>0.9918166240250688</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0004576160379029727</v>
+        <v>0.002111180014780053</v>
       </c>
       <c r="D77" t="n">
-        <v>6.345595401722776e-06</v>
+        <v>0.005044679225282072</v>
       </c>
       <c r="E77" t="n">
-        <v>1.894162530867102e-06</v>
+        <v>0.0001625341764608404</v>
       </c>
       <c r="F77" t="n">
-        <v>2.220280868931425e-14</v>
+        <v>2.220223833090969e-14</v>
       </c>
       <c r="G77" t="n">
-        <v>2.220280868931425e-14</v>
+        <v>2.220223833090969e-14</v>
       </c>
       <c r="H77" t="n">
-        <v>1.215985892764545e-06</v>
+        <v>0.000864982558363684</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9995329282182274</v>
+        <v>0.9918166240250688</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3306,68 +3306,68 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_119.fasta</t>
+          <t>label_GCF_000820725_141.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4009024540135849</v>
+        <v>0.9890690322208975</v>
       </c>
       <c r="C78" t="n">
-        <v>0.007691463183077778</v>
+        <v>0.0001727393563745525</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01000704894100981</v>
+        <v>0.000203963670607908</v>
       </c>
       <c r="E78" t="n">
-        <v>0.005007714209853114</v>
+        <v>0.01055390364622038</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5173427569530991</v>
+        <v>2.219752964200204e-14</v>
       </c>
       <c r="G78" t="n">
-        <v>0.004099484863935673</v>
+        <v>2.219752964200204e-14</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05494907783543965</v>
+        <v>3.61105855393215e-07</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5173427569530991</v>
+        <v>0.9890690322208975</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_129.fasta</t>
+          <t>label_GCF_000820725_147.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9768721309081762</v>
+        <v>0.9533707356808007</v>
       </c>
       <c r="C79" t="n">
-        <v>2.644037912315042e-05</v>
+        <v>6.726481176410131e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0007410324190627242</v>
+        <v>0.01716811460791986</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0004078845549547216</v>
+        <v>0.01343138782715522</v>
       </c>
       <c r="F79" t="n">
-        <v>2.223107791125798e-14</v>
+        <v>2.221581638909731e-14</v>
       </c>
       <c r="G79" t="n">
-        <v>2.223206310286396e-14</v>
+        <v>5.12272615003103e-08</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0219525117386388</v>
+        <v>0.01602298417566409</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9768721309081762</v>
+        <v>0.9533707356808007</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3378,68 +3378,68 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_178.fasta</t>
+          <t>label_GCF_000820725_53.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01252195364174362</v>
+        <v>0.9797758189516882</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00930528602096122</v>
+        <v>8.416781879463278e-07</v>
       </c>
       <c r="D80" t="n">
-        <v>0.05572794683401949</v>
+        <v>0.009009020518710159</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05093540839719313</v>
+        <v>0.009446612275718864</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8625500216694834</v>
+        <v>2.220581875715483e-14</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00433035913741216</v>
+        <v>3.808765408291074e-08</v>
       </c>
       <c r="H80" t="n">
-        <v>0.00462902429918705</v>
+        <v>0.001767668488018509</v>
       </c>
       <c r="I80" t="n">
-        <v>0.8625500216694834</v>
+        <v>0.9797758189516882</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_39.fasta</t>
+          <t>label_GCF_000820725_58.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9929925584684867</v>
+        <v>0.9898584225886066</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0005949479849989832</v>
+        <v>2.992076112180766e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0008605338436574511</v>
+        <v>0.002619828308268217</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000285389535464381</v>
+        <v>0.007447758926307225</v>
       </c>
       <c r="F81" t="n">
-        <v>4.549393835044682e-14</v>
+        <v>2.22018145494571e-14</v>
       </c>
       <c r="G81" t="n">
-        <v>5.146696848163335e-14</v>
+        <v>2.232818882549341e-07</v>
       </c>
       <c r="H81" t="n">
-        <v>0.005266570167295342</v>
+        <v>7.077481879502482e-05</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9929925584684867</v>
+        <v>0.9898584225886066</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3450,32 +3450,32 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_97.fasta</t>
+          <t>label_UMGS1548_115.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9096144537084943</v>
+        <v>0.9064198854634135</v>
       </c>
       <c r="C82" t="n">
-        <v>0.08564718964413026</v>
+        <v>0.04306649353952636</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0024510233373195</v>
+        <v>0.007460818682665022</v>
       </c>
       <c r="E82" t="n">
-        <v>0.002236959284030005</v>
+        <v>0.04291485259947798</v>
       </c>
       <c r="F82" t="n">
-        <v>2.219997047670162e-14</v>
+        <v>2.227203561921849e-14</v>
       </c>
       <c r="G82" t="n">
-        <v>2.219997047670162e-14</v>
+        <v>3.645071479068002e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>5.037402598153665e-05</v>
+        <v>0.0001343046434160019</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9096144537084943</v>
+        <v>0.9064198854634135</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3486,32 +3486,32 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_18.fasta</t>
+          <t>label_UMGS1548_116.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9861218756995556</v>
+        <v>0.9599741627129664</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0047128620780413</v>
+        <v>0.004329840027619804</v>
       </c>
       <c r="D83" t="n">
-        <v>0.008472641739444153</v>
+        <v>0.010016207460652</v>
       </c>
       <c r="E83" t="n">
-        <v>2.098487338684669e-06</v>
+        <v>0.02471471824144065</v>
       </c>
       <c r="F83" t="n">
-        <v>2.220308521999884e-14</v>
+        <v>2.221217434803116e-14</v>
       </c>
       <c r="G83" t="n">
-        <v>2.220308521999884e-14</v>
+        <v>1.658797566920238e-06</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0006905219955758786</v>
+        <v>0.0009634127597320809</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9861218756995556</v>
+        <v>0.9599741627129664</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3522,32 +3522,32 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_53.fasta</t>
+          <t>label_UMGS1548_124.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6673692688154779</v>
+        <v>0.9463361568501664</v>
       </c>
       <c r="C84" t="n">
-        <v>0.02650824788722805</v>
+        <v>0.03104660461690664</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0185214476689254</v>
+        <v>0.002685507089236585</v>
       </c>
       <c r="E84" t="n">
-        <v>0.003675483746075365</v>
+        <v>0.01980594264514117</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1624540540043796</v>
+        <v>2.222121585091572e-14</v>
       </c>
       <c r="G84" t="n">
-        <v>0.003645610771991149</v>
+        <v>7.416922589721951e-11</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1178258871059224</v>
+        <v>0.0001257887243578307</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6673692688154779</v>
+        <v>0.9463361568501664</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3558,32 +3558,32 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_111.fasta</t>
+          <t>label_UMGS1548_25.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.976387809093241</v>
+        <v>0.9234704636358124</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01358963393151272</v>
+        <v>8.392543990218653e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>0.009518275041605741</v>
+        <v>0.02800676477181118</v>
       </c>
       <c r="E85" t="n">
-        <v>7.798664233147761e-05</v>
+        <v>0.01122990770659254</v>
       </c>
       <c r="F85" t="n">
-        <v>2.754562351948791e-14</v>
+        <v>2.22132838972995e-14</v>
       </c>
       <c r="G85" t="n">
-        <v>2.86104707650113e-14</v>
+        <v>2.293265370514385e-10</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0004262952912529732</v>
+        <v>0.03720893821653309</v>
       </c>
       <c r="I85" t="n">
-        <v>0.976387809093241</v>
+        <v>0.9234704636358124</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3594,32 +3594,32 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_129.fasta</t>
+          <t>label_UMGS1548_67.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.8657135548186599</v>
+        <v>0.9593756234280018</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1243316682645939</v>
+        <v>0.0001277905355117246</v>
       </c>
       <c r="D86" t="n">
-        <v>0.008682363645801114</v>
+        <v>0.02702271876227484</v>
       </c>
       <c r="E86" t="n">
-        <v>8.844110047804283e-05</v>
+        <v>0.005776590393480044</v>
       </c>
       <c r="F86" t="n">
-        <v>3.026205155393314e-14</v>
+        <v>2.220961774512242e-14</v>
       </c>
       <c r="G86" t="n">
-        <v>3.195515301388386e-14</v>
+        <v>4.265359218208534e-07</v>
       </c>
       <c r="H86" t="n">
-        <v>0.001183972170404775</v>
+        <v>0.007696850344787613</v>
       </c>
       <c r="I86" t="n">
-        <v>0.8657135548186599</v>
+        <v>0.9593756234280018</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -3630,32 +3630,32 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_138.fasta</t>
+          <t>label_UMGS1548_72.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9538965740499162</v>
+        <v>0.9528557221810872</v>
       </c>
       <c r="C87" t="n">
-        <v>0.03920070207218833</v>
+        <v>0.0003210390752472071</v>
       </c>
       <c r="D87" t="n">
-        <v>0.005087387284416642</v>
+        <v>0.02083092072845706</v>
       </c>
       <c r="E87" t="n">
-        <v>4.022559394077774e-05</v>
+        <v>0.005457578155810848</v>
       </c>
       <c r="F87" t="n">
-        <v>2.222198652462618e-14</v>
+        <v>2.221480316471499e-14</v>
       </c>
       <c r="G87" t="n">
-        <v>2.222264247030309e-14</v>
+        <v>5.70869439810219e-08</v>
       </c>
       <c r="H87" t="n">
-        <v>0.00177511099949372</v>
+        <v>0.02053468277243158</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9538965740499162</v>
+        <v>0.9528557221810872</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3666,32 +3666,32 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_58.fasta</t>
+          <t>label_UMGS1719_12.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9913195336282415</v>
+        <v>0.8784303571109855</v>
       </c>
       <c r="C88" t="n">
-        <v>0.005022860552166356</v>
+        <v>0.1013662203805725</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003620074093947333</v>
+        <v>0.01665548759568915</v>
       </c>
       <c r="E88" t="n">
-        <v>1.348102801891983e-06</v>
+        <v>0.003471757882601116</v>
       </c>
       <c r="F88" t="n">
-        <v>2.220264680683611e-14</v>
+        <v>2.222346501326751e-14</v>
       </c>
       <c r="G88" t="n">
-        <v>2.220264680683611e-14</v>
+        <v>1.462027441547971e-13</v>
       </c>
       <c r="H88" t="n">
-        <v>3.618362279838622e-05</v>
+        <v>7.617702998325722e-05</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9913195336282415</v>
+        <v>0.8784303571109855</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3702,32 +3702,32 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_64.fasta</t>
+          <t>label_UMGS1719_39.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9838989650063125</v>
+        <v>0.9026468096934975</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00823917066581609</v>
+        <v>0.01549090057746589</v>
       </c>
       <c r="D89" t="n">
-        <v>0.007628127715854436</v>
+        <v>0.06365786426358834</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0002191765976393741</v>
+        <v>0.006317635595694674</v>
       </c>
       <c r="F89" t="n">
-        <v>2.818692224237706e-14</v>
+        <v>2.220742101269786e-14</v>
       </c>
       <c r="G89" t="n">
-        <v>2.938007122113263e-14</v>
+        <v>2.03224136554507e-10</v>
       </c>
       <c r="H89" t="n">
-        <v>1.456001432008068e-05</v>
+        <v>0.01188678966650728</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9838989650063125</v>
+        <v>0.9026468096934975</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3738,32 +3738,32 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_67.fasta</t>
+          <t>label_UMGS1719_96.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9801337198295036</v>
+        <v>0.9624083422777693</v>
       </c>
       <c r="C90" t="n">
-        <v>0.006588309336443244</v>
+        <v>0.003328994323488712</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01315565178909052</v>
+        <v>0.004209591715578288</v>
       </c>
       <c r="E90" t="n">
-        <v>7.353498008016408e-05</v>
+        <v>0.03002872306971027</v>
       </c>
       <c r="F90" t="n">
-        <v>2.344432860064191e-14</v>
+        <v>2.220014664622079e-14</v>
       </c>
       <c r="G90" t="n">
-        <v>2.364236714588185e-14</v>
+        <v>2.220014664622079e-14</v>
       </c>
       <c r="H90" t="n">
-        <v>4.878406483526908e-05</v>
+        <v>2.434861340894431e-05</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9801337198295036</v>
+        <v>0.9624083422777693</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3774,32 +3774,32 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_37.fasta</t>
+          <t>label_UMGS1731_10.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9640954759685633</v>
+        <v>0.9842753761959275</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01025216603606819</v>
+        <v>0.002477002322727647</v>
       </c>
       <c r="D91" t="n">
-        <v>0.004015516640838817</v>
+        <v>0.007471818186274801</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01944569044578446</v>
+        <v>0.003972843066674264</v>
       </c>
       <c r="F91" t="n">
-        <v>2.488047179353301e-14</v>
+        <v>2.219987866755065e-14</v>
       </c>
       <c r="G91" t="n">
-        <v>2.537465128335401e-14</v>
+        <v>4.30912512142733e-11</v>
       </c>
       <c r="H91" t="n">
-        <v>0.002191150908694909</v>
+        <v>0.001802960185282355</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9640954759685633</v>
+        <v>0.9842753761959275</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3810,32 +3810,32 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_1.fasta</t>
+          <t>label_UMGS1731_4.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9799973025878881</v>
+        <v>0.9788553902175866</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002123820092131716</v>
+        <v>0.01222031796292161</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01536425828032446</v>
+        <v>0.005100891842055756</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004388463573500747</v>
+        <v>0.0030683697475303</v>
       </c>
       <c r="F92" t="n">
-        <v>2.404966445623118e-14</v>
+        <v>2.220131778281403e-14</v>
       </c>
       <c r="G92" t="n">
-        <v>2.436055468450302e-14</v>
+        <v>3.179456373735826e-12</v>
       </c>
       <c r="H92" t="n">
-        <v>3.759354902506913e-05</v>
+        <v>0.0007550302267041114</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9799973025878881</v>
+        <v>0.9788553902175866</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3846,32 +3846,32 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_11.fasta</t>
+          <t>label_UMGS1934_28.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.8079973348806831</v>
+        <v>0.9726286154052414</v>
       </c>
       <c r="C93" t="n">
-        <v>0.00649996917598236</v>
+        <v>0.000807266771898507</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02184154613197129</v>
+        <v>0.01834346041523872</v>
       </c>
       <c r="E93" t="n">
-        <v>0.006707626532153109</v>
+        <v>0.008215725484325184</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1483329881637287</v>
+        <v>2.220496853305736e-14</v>
       </c>
       <c r="G93" t="n">
-        <v>0.004291709564983838</v>
+        <v>7.344798553660437e-12</v>
       </c>
       <c r="H93" t="n">
-        <v>0.004328825550497562</v>
+        <v>4.931915929144999e-06</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8079973348806831</v>
+        <v>0.9726286154052414</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3882,32 +3882,32 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_25.fasta</t>
+          <t>label_UMGS1934_59.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9823010017845208</v>
+        <v>0.9798762023848365</v>
       </c>
       <c r="C94" t="n">
-        <v>0.000484492326503581</v>
+        <v>0.0005860618134408009</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01719281572642813</v>
+        <v>0.01535102505735916</v>
       </c>
       <c r="E94" t="n">
-        <v>1.49540600507077e-05</v>
+        <v>0.004186504408728171</v>
       </c>
       <c r="F94" t="n">
-        <v>2.21976526322158e-14</v>
+        <v>2.220112163044752e-14</v>
       </c>
       <c r="G94" t="n">
-        <v>2.21976526322158e-14</v>
+        <v>5.649427896794799e-13</v>
       </c>
       <c r="H94" t="n">
-        <v>6.736102452292652e-06</v>
+        <v>2.063350480660632e-07</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9823010017845208</v>
+        <v>0.9798762023848365</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3918,32 +3918,32 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_33.fasta</t>
+          <t>label_UMGS1934_82.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.8956580506361624</v>
+        <v>0.9678159274685647</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09477684675143763</v>
+        <v>0.01003997865609558</v>
       </c>
       <c r="D95" t="n">
-        <v>0.008348304440636908</v>
+        <v>0.01632732548406342</v>
       </c>
       <c r="E95" t="n">
-        <v>6.198636282373189e-05</v>
+        <v>0.005816445149708824</v>
       </c>
       <c r="F95" t="n">
-        <v>2.80760076236158e-14</v>
+        <v>2.220892024798012e-14</v>
       </c>
       <c r="G95" t="n">
-        <v>2.926577600955485e-14</v>
+        <v>5.161190720104196e-14</v>
       </c>
       <c r="H95" t="n">
-        <v>0.001154811808881907</v>
+        <v>3.232414936104867e-07</v>
       </c>
       <c r="I95" t="n">
-        <v>0.8956580506361624</v>
+        <v>0.9678159274685647</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3954,32 +3954,32 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS252_4.fasta</t>
+          <t>label_UMGS1934_86.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9845509870224215</v>
+        <v>0.9286384761311155</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0003442035302265561</v>
+        <v>0.0002035296167505077</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0127476282327954</v>
+        <v>0.01417117414097444</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002351773610574563</v>
+        <v>0.05698468934677587</v>
       </c>
       <c r="F96" t="n">
-        <v>2.219951904673579e-14</v>
+        <v>2.220876668098907e-14</v>
       </c>
       <c r="G96" t="n">
-        <v>2.219951904673579e-14</v>
+        <v>2.220876668098907e-14</v>
       </c>
       <c r="H96" t="n">
-        <v>5.407603937682044e-06</v>
+        <v>2.130764339305331e-06</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9845509870224215</v>
+        <v>0.9286384761311155</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -3990,32 +3990,32 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS402_40.fasta</t>
+          <t>label_UMGS2071_49.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.8717154022188827</v>
+        <v>0.916793737631548</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02572663381229716</v>
+        <v>0.02623335620246825</v>
       </c>
       <c r="D97" t="n">
-        <v>0.01709892908325322</v>
+        <v>0.01234154585655133</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003119883962871482</v>
+        <v>0.04059085453186218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05481144884534659</v>
+        <v>2.221777965909372e-14</v>
       </c>
       <c r="G97" t="n">
-        <v>0.003099585322203235</v>
+        <v>1.901993251110179e-09</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02442811675514557</v>
+        <v>0.00404050387555469</v>
       </c>
       <c r="I97" t="n">
-        <v>0.8717154022188827</v>
+        <v>0.916793737631548</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4026,32 +4026,32 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_50.fasta</t>
+          <t>label_UMGS242_25.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9726743141050208</v>
+        <v>0.9719556418552405</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0160196113465059</v>
+        <v>1.07919439719326e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01006363905531582</v>
+        <v>0.002963105974261098</v>
       </c>
       <c r="E98" t="n">
-        <v>1.838060551590157e-05</v>
+        <v>0.01994196567880121</v>
       </c>
       <c r="F98" t="n">
-        <v>2.220514651176649e-14</v>
+        <v>2.220301118890115e-14</v>
       </c>
       <c r="G98" t="n">
-        <v>2.220514651176649e-14</v>
+        <v>7.477425678716729e-13</v>
       </c>
       <c r="H98" t="n">
-        <v>0.001224054887597232</v>
+        <v>0.00512849454695508</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9726743141050208</v>
+        <v>0.9719556418552405</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4062,32 +4062,32 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_83.fasta</t>
+          <t>label_UMGS402_37.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9882414423240378</v>
+        <v>0.9470492574702568</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008582376512971409</v>
+        <v>0.04276658301869521</v>
       </c>
       <c r="D99" t="n">
-        <v>0.002496430340567095</v>
+        <v>0.005102260188597849</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0002521262538462994</v>
+        <v>0.005042929148908512</v>
       </c>
       <c r="F99" t="n">
-        <v>2.220167138026749e-14</v>
+        <v>2.220237724288827e-14</v>
       </c>
       <c r="G99" t="n">
-        <v>2.220167138026749e-14</v>
+        <v>2.666409703506729e-14</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0004276245685330357</v>
+        <v>3.897017349270138e-05</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9882414423240378</v>
+        <v>0.9470492574702568</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4098,32 +4098,32 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_41.fasta</t>
+          <t>label_UMGS492_21.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9876363889950661</v>
+        <v>0.9836380055134755</v>
       </c>
       <c r="C100" t="n">
-        <v>0.000328539300217866</v>
+        <v>0.01012386790801157</v>
       </c>
       <c r="D100" t="n">
-        <v>0.007648810821015056</v>
+        <v>0.00127202322519882</v>
       </c>
       <c r="E100" t="n">
-        <v>2.64390776948307e-05</v>
+        <v>0.004949950164937622</v>
       </c>
       <c r="F100" t="n">
-        <v>2.220345294720751e-14</v>
+        <v>2.220324986507726e-14</v>
       </c>
       <c r="G100" t="n">
-        <v>2.220345294720751e-14</v>
+        <v>2.220324986507726e-14</v>
       </c>
       <c r="H100" t="n">
-        <v>0.004359821805961877</v>
+        <v>1.615318833217614e-05</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9876363889950661</v>
+        <v>0.9836380055134755</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4134,32 +4134,32 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_71.fasta</t>
+          <t>label_UMGS492_47.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9918166240250688</v>
+        <v>0.986220509577306</v>
       </c>
       <c r="C101" t="n">
-        <v>0.002111180014780053</v>
+        <v>0.007375425297431353</v>
       </c>
       <c r="D101" t="n">
-        <v>0.005044679225282072</v>
+        <v>0.004076697627307179</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0001625341764608404</v>
+        <v>0.002067300862202238</v>
       </c>
       <c r="F101" t="n">
-        <v>2.220223833090969e-14</v>
+        <v>2.220374975301333e-14</v>
       </c>
       <c r="G101" t="n">
-        <v>2.220223833090969e-14</v>
+        <v>3.556670784852632e-13</v>
       </c>
       <c r="H101" t="n">
-        <v>0.000864982558363684</v>
+        <v>0.000260066635375202</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9918166240250688</v>
+        <v>0.986220509577306</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4170,32 +4170,32 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_141.fasta</t>
+          <t>label_UMGS492_82.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9890690322208975</v>
+        <v>0.8664385011717506</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0001727393563745525</v>
+        <v>0.01207967389469851</v>
       </c>
       <c r="D102" t="n">
-        <v>0.000203963670607908</v>
+        <v>0.02261923926825364</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01055390364622038</v>
+        <v>0.006426616229091591</v>
       </c>
       <c r="F102" t="n">
-        <v>2.219752964200204e-14</v>
+        <v>0.07132196644783026</v>
       </c>
       <c r="G102" t="n">
-        <v>2.219752964200204e-14</v>
+        <v>0.003446886086990113</v>
       </c>
       <c r="H102" t="n">
-        <v>3.61105855393215e-07</v>
+        <v>0.01766711690138552</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9890690322208975</v>
+        <v>0.8664385011717506</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4206,32 +4206,32 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_147.fasta</t>
+          <t>label_UMGS520_52.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9533707356808007</v>
+        <v>0.9707606760283332</v>
       </c>
       <c r="C103" t="n">
-        <v>6.726481176410131e-06</v>
+        <v>0.0003602498175530582</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01716811460791986</v>
+        <v>0.02065843009498012</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01343138782715522</v>
+        <v>0.006499871944343485</v>
       </c>
       <c r="F103" t="n">
-        <v>2.221581638909731e-14</v>
+        <v>2.220377978462588e-14</v>
       </c>
       <c r="G103" t="n">
-        <v>5.12272615003103e-08</v>
+        <v>1.147478612850219e-10</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01602298417566409</v>
+        <v>0.001720772000020019</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9533707356808007</v>
+        <v>0.9707606760283332</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -4242,32 +4242,32 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_53.fasta</t>
+          <t>label_UMGS520_59.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9797758189516882</v>
+        <v>0.8756531194462966</v>
       </c>
       <c r="C104" t="n">
-        <v>8.416781879463278e-07</v>
+        <v>0.0001841096544604588</v>
       </c>
       <c r="D104" t="n">
-        <v>0.009009020518710159</v>
+        <v>0.02518512711285845</v>
       </c>
       <c r="E104" t="n">
-        <v>0.009446612275718864</v>
+        <v>0.007811568828444599</v>
       </c>
       <c r="F104" t="n">
-        <v>2.220581875715483e-14</v>
+        <v>2.22083082175676e-14</v>
       </c>
       <c r="G104" t="n">
-        <v>3.808765408291074e-08</v>
+        <v>9.848734032352153e-09</v>
       </c>
       <c r="H104" t="n">
-        <v>0.001767668488018509</v>
+        <v>0.09116606510918367</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9797758189516882</v>
+        <v>0.8756531194462966</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -4278,68 +4278,68 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_58.fasta</t>
+          <t>label_UMGS520_79.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9898584225886066</v>
+        <v>0.2839490111492698</v>
       </c>
       <c r="C105" t="n">
-        <v>2.992076112180766e-06</v>
+        <v>0.00219810067067288</v>
       </c>
       <c r="D105" t="n">
-        <v>0.002619828308268217</v>
+        <v>0.04663739132348203</v>
       </c>
       <c r="E105" t="n">
-        <v>0.007447758926307225</v>
+        <v>0.01205294667293553</v>
       </c>
       <c r="F105" t="n">
-        <v>2.22018145494571e-14</v>
+        <v>2.238458203975461e-14</v>
       </c>
       <c r="G105" t="n">
-        <v>2.232818882549341e-07</v>
+        <v>3.058670012510378e-06</v>
       </c>
       <c r="H105" t="n">
-        <v>7.077481879502482e-05</v>
+        <v>0.6551594915136049</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9898584225886066</v>
+        <v>0.6551594915136049</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Micrococcaceae</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_115.fasta</t>
+          <t>label_UMGS956_54.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9064198854634135</v>
+        <v>0.9655877202847524</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04306649353952636</v>
+        <v>6.770220053923247e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>0.007460818682665022</v>
+        <v>0.02261972517509673</v>
       </c>
       <c r="E106" t="n">
-        <v>0.04291485259947798</v>
+        <v>0.003154717227713019</v>
       </c>
       <c r="F106" t="n">
-        <v>2.227203561921849e-14</v>
+        <v>2.220696833459831e-14</v>
       </c>
       <c r="G106" t="n">
-        <v>3.645071479068002e-06</v>
+        <v>2.264788300069119e-08</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0001343046434160019</v>
+        <v>0.008570112463993321</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9064198854634135</v>
+        <v>0.9655877202847524</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -4350,32 +4350,32 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_116.fasta</t>
+          <t>label_GCF_000820725_102.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9599741627129664</v>
+        <v>0.9944890018102447</v>
       </c>
       <c r="C107" t="n">
-        <v>0.004329840027619804</v>
+        <v>0.005013619505979828</v>
       </c>
       <c r="D107" t="n">
-        <v>0.010016207460652</v>
+        <v>8.970342055570147e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02471471824144065</v>
+        <v>1.91264468061357e-07</v>
       </c>
       <c r="F107" t="n">
-        <v>2.221217434803116e-14</v>
+        <v>2.219957316007273e-14</v>
       </c>
       <c r="G107" t="n">
-        <v>1.658797566920238e-06</v>
+        <v>2.219957316007273e-14</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0009634127597320809</v>
+        <v>0.0004074839987073142</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9599741627129664</v>
+        <v>0.9944890018102447</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4386,32 +4386,32 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_124.fasta</t>
+          <t>label_GCF_000820725_114.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9463361568501664</v>
+        <v>0.990599569921536</v>
       </c>
       <c r="C108" t="n">
-        <v>0.03104660461690664</v>
+        <v>3.647643422659296e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>0.002685507089236585</v>
+        <v>0.00232081798803512</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01980594264514117</v>
+        <v>2.333882469771774e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>2.222121585091572e-14</v>
+        <v>2.220160323506344e-14</v>
       </c>
       <c r="G108" t="n">
-        <v>7.416922589721951e-11</v>
+        <v>2.220160323506344e-14</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0001257887243578307</v>
+        <v>0.007019796831460097</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9463361568501664</v>
+        <v>0.990599569921536</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4422,32 +4422,32 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_25.fasta</t>
+          <t>label_GCF_000820725_136.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9234704636358124</v>
+        <v>0.989607011137808</v>
       </c>
       <c r="C109" t="n">
-        <v>8.392543990218653e-05</v>
+        <v>0.001152076880998927</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02800676477181118</v>
+        <v>0.007798952137147909</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01122990770659254</v>
+        <v>0.0001167883589418496</v>
       </c>
       <c r="F109" t="n">
-        <v>2.22132838972995e-14</v>
+        <v>2.220073378422134e-14</v>
       </c>
       <c r="G109" t="n">
-        <v>2.293265370514385e-10</v>
+        <v>2.220073378422134e-14</v>
       </c>
       <c r="H109" t="n">
-        <v>0.03720893821653309</v>
+        <v>0.001325171485058895</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9234704636358124</v>
+        <v>0.989607011137808</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4458,32 +4458,32 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_67.fasta</t>
+          <t>label_GCF_000820725_16.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9593756234280018</v>
+        <v>0.9809735908955295</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001277905355117246</v>
+        <v>0.01402820034454138</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02702271876227484</v>
+        <v>0.002496751900334499</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005776590393480044</v>
+        <v>2.337336244195574e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>2.220961774512242e-14</v>
+        <v>2.220147179543142e-14</v>
       </c>
       <c r="G110" t="n">
-        <v>4.265359218208534e-07</v>
+        <v>2.220147179543142e-14</v>
       </c>
       <c r="H110" t="n">
-        <v>0.007696850344787613</v>
+        <v>0.002478083497108316</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9593756234280018</v>
+        <v>0.9809735908955295</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4494,32 +4494,32 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1548_72.fasta</t>
+          <t>label_GCF_000820725_41.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9528557221810872</v>
+        <v>0.9756585455446894</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0003210390752472071</v>
+        <v>0.02272065263549439</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02083092072845706</v>
+        <v>0.001471435659418058</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005457578155810848</v>
+        <v>1.943633154035685e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>2.221480316471499e-14</v>
+        <v>2.219742096566421e-14</v>
       </c>
       <c r="G111" t="n">
-        <v>5.70869439810219e-08</v>
+        <v>2.219742096566421e-14</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02053468277243158</v>
+        <v>0.000129929828813404</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9528557221810872</v>
+        <v>0.9756585455446894</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4530,68 +4530,68 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_12.fasta</t>
+          <t>label_GCF_000820725_51.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.8784303571109855</v>
+        <v>0.4137975725360677</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1013662203805725</v>
+        <v>0.01346774644096134</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01665548759568915</v>
+        <v>0.0418392398872157</v>
       </c>
       <c r="E112" t="n">
-        <v>0.003471757882601116</v>
+        <v>0.005101708772055995</v>
       </c>
       <c r="F112" t="n">
-        <v>2.222346501326751e-14</v>
+        <v>0.5173961464431781</v>
       </c>
       <c r="G112" t="n">
-        <v>1.462027441547971e-13</v>
+        <v>0.004197234424286307</v>
       </c>
       <c r="H112" t="n">
-        <v>7.617702998325722e-05</v>
+        <v>0.004200351496234821</v>
       </c>
       <c r="I112" t="n">
-        <v>0.8784303571109855</v>
+        <v>0.5173961464431781</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_39.fasta</t>
+          <t>label_GCF_000820725_66.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9026468096934975</v>
+        <v>0.998485665596657</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01549090057746589</v>
+        <v>0.0006490623831813167</v>
       </c>
       <c r="D113" t="n">
-        <v>0.06365786426358834</v>
+        <v>0.0002017905518326052</v>
       </c>
       <c r="E113" t="n">
-        <v>0.006317635595694674</v>
+        <v>1.915739249154561e-07</v>
       </c>
       <c r="F113" t="n">
-        <v>2.220742101269786e-14</v>
+        <v>2.219889269944927e-14</v>
       </c>
       <c r="G113" t="n">
-        <v>2.03224136554507e-10</v>
+        <v>2.219889269944927e-14</v>
       </c>
       <c r="H113" t="n">
-        <v>0.01188678966650728</v>
+        <v>0.0006632898943597534</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9026468096934975</v>
+        <v>0.998485665596657</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -4602,32 +4602,32 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1719_96.fasta</t>
+          <t>label_GCF_000820725_77.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9624083422777693</v>
+        <v>0.9954679645135025</v>
       </c>
       <c r="C114" t="n">
-        <v>0.003328994323488712</v>
+        <v>0.002977605694953196</v>
       </c>
       <c r="D114" t="n">
-        <v>0.004209591715578288</v>
+        <v>0.0004424899980466517</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03002872306971027</v>
+        <v>3.675781183983659e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>2.220014664622079e-14</v>
+        <v>2.220054046196572e-14</v>
       </c>
       <c r="G114" t="n">
-        <v>2.220014664622079e-14</v>
+        <v>2.220054046196572e-14</v>
       </c>
       <c r="H114" t="n">
-        <v>2.434861340894431e-05</v>
+        <v>0.001108264012269075</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9624083422777693</v>
+        <v>0.9954679645135025</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -4638,32 +4638,32 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_10.fasta</t>
+          <t>label_UMGS1548_27.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9842753761959275</v>
+        <v>0.9771734016135618</v>
       </c>
       <c r="C115" t="n">
-        <v>0.002477002322727647</v>
+        <v>6.326825527184875e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>0.007471818186274801</v>
+        <v>0.002649954468462381</v>
       </c>
       <c r="E115" t="n">
-        <v>0.003972843066674264</v>
+        <v>0.0009057186541111922</v>
       </c>
       <c r="F115" t="n">
-        <v>2.219987866755065e-14</v>
+        <v>2.219793167299357e-14</v>
       </c>
       <c r="G115" t="n">
-        <v>4.30912512142733e-11</v>
+        <v>2.219793167299357e-14</v>
       </c>
       <c r="H115" t="n">
-        <v>0.001802960185282355</v>
+        <v>0.0192076570085486</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9842753761959275</v>
+        <v>0.9771734016135618</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -4674,32 +4674,32 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1731_4.fasta</t>
+          <t>label_UMGS1548_37.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9788553902175866</v>
+        <v>0.9880907370660602</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01222031796292161</v>
+        <v>5.488699161151531e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>0.005100891842055756</v>
+        <v>0.009514111662916656</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0030683697475303</v>
+        <v>0.001040776963884656</v>
       </c>
       <c r="F116" t="n">
-        <v>2.220131778281403e-14</v>
+        <v>2.220008373971037e-14</v>
       </c>
       <c r="G116" t="n">
-        <v>3.179456373735826e-12</v>
+        <v>2.220008373971037e-14</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0007550302267041114</v>
+        <v>0.001299487315482508</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9788553902175866</v>
+        <v>0.9880907370660602</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
@@ -4710,32 +4710,32 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_28.fasta</t>
+          <t>label_UMGS1548_45.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9726286154052414</v>
+        <v>0.9625957967625035</v>
       </c>
       <c r="C117" t="n">
-        <v>0.000807266771898507</v>
+        <v>0.0002569157125023331</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01834346041523872</v>
+        <v>0.01175058125760348</v>
       </c>
       <c r="E117" t="n">
-        <v>0.008215725484325184</v>
+        <v>0.008299607706277126</v>
       </c>
       <c r="F117" t="n">
-        <v>2.220496853305736e-14</v>
+        <v>2.504583492975899e-14</v>
       </c>
       <c r="G117" t="n">
-        <v>7.344798553660437e-12</v>
+        <v>2.557566956599013e-14</v>
       </c>
       <c r="H117" t="n">
-        <v>4.931915929144999e-06</v>
+        <v>0.01709709856106303</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9726286154052414</v>
+        <v>0.9625957967625035</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -4746,32 +4746,32 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_59.fasta</t>
+          <t>label_UMGS1719_107.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9798762023848365</v>
+        <v>0.8996423241112647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0005860618134408009</v>
+        <v>0.08887418860389679</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01535102505735916</v>
+        <v>0.01103589888172587</v>
       </c>
       <c r="E118" t="n">
-        <v>0.004186504408728171</v>
+        <v>0.0004318057860370156</v>
       </c>
       <c r="F118" t="n">
-        <v>2.220112163044752e-14</v>
+        <v>2.220350123935817e-14</v>
       </c>
       <c r="G118" t="n">
-        <v>5.649427896794799e-13</v>
+        <v>2.220350123935817e-14</v>
       </c>
       <c r="H118" t="n">
-        <v>2.063350480660632e-07</v>
+        <v>1.578261703131993e-05</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9798762023848365</v>
+        <v>0.8996423241112647</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -4782,32 +4782,32 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_82.fasta</t>
+          <t>label_UMGS1719_14.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9678159274685647</v>
+        <v>0.9799627736708754</v>
       </c>
       <c r="C119" t="n">
-        <v>0.01003997865609558</v>
+        <v>3.54088227950498e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01632732548406342</v>
+        <v>0.01878129278709272</v>
       </c>
       <c r="E119" t="n">
-        <v>0.005816445149708824</v>
+        <v>0.001220500349553197</v>
       </c>
       <c r="F119" t="n">
-        <v>2.220892024798012e-14</v>
+        <v>2.219581294118651e-14</v>
       </c>
       <c r="G119" t="n">
-        <v>5.161190720104196e-14</v>
+        <v>2.219581294118651e-14</v>
       </c>
       <c r="H119" t="n">
-        <v>3.232414936104867e-07</v>
+        <v>2.436963930828961e-08</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9678159274685647</v>
+        <v>0.9799627736708754</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -4818,32 +4818,32 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1934_86.fasta</t>
+          <t>label_UMGS1719_81.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9286384761311155</v>
+        <v>0.891014101331051</v>
       </c>
       <c r="C120" t="n">
-        <v>0.0002035296167505077</v>
+        <v>0.08566400548951335</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01417117414097444</v>
+        <v>0.01908425941349617</v>
       </c>
       <c r="E120" t="n">
-        <v>0.05698468934677587</v>
+        <v>0.004234822408909402</v>
       </c>
       <c r="F120" t="n">
-        <v>2.220876668098907e-14</v>
+        <v>2.221708441451981e-14</v>
       </c>
       <c r="G120" t="n">
-        <v>2.220876668098907e-14</v>
+        <v>2.221708441451981e-14</v>
       </c>
       <c r="H120" t="n">
-        <v>2.130764339305331e-06</v>
+        <v>2.811356985713343e-06</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9286384761311155</v>
+        <v>0.891014101331051</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -4854,32 +4854,32 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS2071_49.fasta</t>
+          <t>label_UMGS1731_15.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.916793737631548</v>
+        <v>0.9757402493455106</v>
       </c>
       <c r="C121" t="n">
-        <v>0.02623335620246825</v>
+        <v>0.01983458253120906</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01234154585655133</v>
+        <v>0.001399770918704624</v>
       </c>
       <c r="E121" t="n">
-        <v>0.04059085453186218</v>
+        <v>4.525111019269203e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>2.221777965909372e-14</v>
+        <v>2.220128341832615e-14</v>
       </c>
       <c r="G121" t="n">
-        <v>1.901993251110179e-09</v>
+        <v>2.220128341832615e-14</v>
       </c>
       <c r="H121" t="n">
-        <v>0.00404050387555469</v>
+        <v>0.002980146094338373</v>
       </c>
       <c r="I121" t="n">
-        <v>0.916793737631548</v>
+        <v>0.9757402493455106</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -4890,32 +4890,32 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS242_25.fasta</t>
+          <t>label_UMGS1731_61.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9719556418552405</v>
+        <v>0.9569647712645919</v>
       </c>
       <c r="C122" t="n">
-        <v>1.07919439719326e-05</v>
+        <v>0.0132452117379869</v>
       </c>
       <c r="D122" t="n">
-        <v>0.002963105974261098</v>
+        <v>0.003913509812704087</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01994196567880121</v>
+        <v>0.002166860247319851</v>
       </c>
       <c r="F122" t="n">
-        <v>2.220301118890115e-14</v>
+        <v>0.01473148745666302</v>
       </c>
       <c r="G122" t="n">
-        <v>7.477425678716729e-13</v>
+        <v>0.001704156140037126</v>
       </c>
       <c r="H122" t="n">
-        <v>0.00512849454695508</v>
+        <v>0.007274003340697214</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9719556418552405</v>
+        <v>0.9569647712645919</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -4926,32 +4926,32 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS402_37.fasta</t>
+          <t>label_UMGS1934_130.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9470492574702568</v>
+        <v>0.541293982110386</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04276658301869521</v>
+        <v>0.2281485342239577</v>
       </c>
       <c r="D123" t="n">
-        <v>0.005102260188597849</v>
+        <v>0.01936564607095881</v>
       </c>
       <c r="E123" t="n">
-        <v>0.005042929148908512</v>
+        <v>0.005353118369548646</v>
       </c>
       <c r="F123" t="n">
-        <v>2.220237724288827e-14</v>
+        <v>0.1979802323000159</v>
       </c>
       <c r="G123" t="n">
-        <v>2.666409703506729e-14</v>
+        <v>0.003901766780160946</v>
       </c>
       <c r="H123" t="n">
-        <v>3.897017349270138e-05</v>
+        <v>0.003956720144972075</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9470492574702568</v>
+        <v>0.541293982110386</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -4962,32 +4962,32 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_21.fasta</t>
+          <t>label_UMGS2071_33.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9836380055134755</v>
+        <v>0.9861663054768721</v>
       </c>
       <c r="C124" t="n">
-        <v>0.01012386790801157</v>
+        <v>0.001283834795580751</v>
       </c>
       <c r="D124" t="n">
-        <v>0.00127202322519882</v>
+        <v>0.002990657694679892</v>
       </c>
       <c r="E124" t="n">
-        <v>0.004949950164937622</v>
+        <v>0.007552900174141154</v>
       </c>
       <c r="F124" t="n">
-        <v>2.220324986507726e-14</v>
+        <v>2.220955561711389e-14</v>
       </c>
       <c r="G124" t="n">
-        <v>2.220324986507726e-14</v>
+        <v>2.220974333618612e-14</v>
       </c>
       <c r="H124" t="n">
-        <v>1.615318833217614e-05</v>
+        <v>0.002006301858681616</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9836380055134755</v>
+        <v>0.9861663054768721</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
@@ -4998,32 +4998,32 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_47.fasta</t>
+          <t>label_UMGS2071_54.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.986220509577306</v>
+        <v>0.8737397246636878</v>
       </c>
       <c r="C125" t="n">
-        <v>0.007375425297431353</v>
+        <v>0.007334280092187667</v>
       </c>
       <c r="D125" t="n">
-        <v>0.004076697627307179</v>
+        <v>0.01235456970521746</v>
       </c>
       <c r="E125" t="n">
-        <v>0.002067300862202238</v>
+        <v>0.01153733009669336</v>
       </c>
       <c r="F125" t="n">
-        <v>2.220374975301333e-14</v>
+        <v>0.08145493832007784</v>
       </c>
       <c r="G125" t="n">
-        <v>3.556670784852632e-13</v>
+        <v>0.003818081293743675</v>
       </c>
       <c r="H125" t="n">
-        <v>0.000260066635375202</v>
+        <v>0.009761075828392233</v>
       </c>
       <c r="I125" t="n">
-        <v>0.986220509577306</v>
+        <v>0.8737397246636878</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
@@ -5034,32 +5034,32 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS492_82.fasta</t>
+          <t>label_UMGS402_21.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.8664385011717506</v>
+        <v>0.9743547330163305</v>
       </c>
       <c r="C126" t="n">
-        <v>0.01207967389469851</v>
+        <v>0.003387648389249875</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02261923926825364</v>
+        <v>0.002882561081592139</v>
       </c>
       <c r="E126" t="n">
-        <v>0.006426616229091591</v>
+        <v>0.002592470983667299</v>
       </c>
       <c r="F126" t="n">
-        <v>0.07132196644783026</v>
+        <v>0.009503747524067683</v>
       </c>
       <c r="G126" t="n">
-        <v>0.003446886086990113</v>
+        <v>0.001408739863651093</v>
       </c>
       <c r="H126" t="n">
-        <v>0.01766711690138552</v>
+        <v>0.005870099141441365</v>
       </c>
       <c r="I126" t="n">
-        <v>0.8664385011717506</v>
+        <v>0.9743547330163305</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5070,32 +5070,32 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_52.fasta</t>
+          <t>label_UMGS492_35.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9707606760283332</v>
+        <v>0.9893422337700449</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0003602498175530582</v>
+        <v>0.006925186404539666</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02065843009498012</v>
+        <v>0.001280578875619679</v>
       </c>
       <c r="E127" t="n">
-        <v>0.006499871944343485</v>
+        <v>7.500776413044827e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>2.220377978462588e-14</v>
+        <v>2.220072791341805e-14</v>
       </c>
       <c r="G127" t="n">
-        <v>1.147478612850219e-10</v>
+        <v>2.220072791341805e-14</v>
       </c>
       <c r="H127" t="n">
-        <v>0.001720772000020019</v>
+        <v>0.002376993185620848</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9707606760283332</v>
+        <v>0.9893422337700449</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5106,32 +5106,32 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_59.fasta</t>
+          <t>label_UMGS492_48.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.8756531194462966</v>
+        <v>0.9896145159135999</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0001841096544604588</v>
+        <v>0.002426259902389948</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02518512711285845</v>
+        <v>0.007310080823500334</v>
       </c>
       <c r="E128" t="n">
-        <v>0.007811568828444599</v>
+        <v>0.0005012567915751016</v>
       </c>
       <c r="F128" t="n">
-        <v>2.22083082175676e-14</v>
+        <v>2.219994449868179e-14</v>
       </c>
       <c r="G128" t="n">
-        <v>9.848734032352153e-09</v>
+        <v>2.219994449868179e-14</v>
       </c>
       <c r="H128" t="n">
-        <v>0.09116606510918367</v>
+        <v>0.0001478865688901793</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8756531194462966</v>
+        <v>0.9896145159135999</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5142,68 +5142,68 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS520_79.fasta</t>
+          <t>label_UMGS492_80.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.2839490111492698</v>
+        <v>0.9783309479151351</v>
       </c>
       <c r="C129" t="n">
-        <v>0.00219810067067288</v>
+        <v>0.01575690994013184</v>
       </c>
       <c r="D129" t="n">
-        <v>0.04663739132348203</v>
+        <v>0.002611787946529825</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01205294667293553</v>
+        <v>0.0001719108361135695</v>
       </c>
       <c r="F129" t="n">
-        <v>2.238458203975461e-14</v>
+        <v>2.220195318097318e-14</v>
       </c>
       <c r="G129" t="n">
-        <v>3.058670012510378e-06</v>
+        <v>2.220195318097318e-14</v>
       </c>
       <c r="H129" t="n">
-        <v>0.6551594915136049</v>
+        <v>0.003128443362045331</v>
       </c>
       <c r="I129" t="n">
-        <v>0.6551594915136049</v>
+        <v>0.9783309479151351</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>f__Micrococcaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS956_54.fasta</t>
+          <t>label_UMGS492_85.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9655877202847524</v>
+        <v>0.9880763094155787</v>
       </c>
       <c r="C130" t="n">
-        <v>6.770220053923247e-05</v>
+        <v>0.005519505593583184</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02261972517509673</v>
+        <v>0.00561584585329745</v>
       </c>
       <c r="E130" t="n">
-        <v>0.003154717227713019</v>
+        <v>0.0004183759138523268</v>
       </c>
       <c r="F130" t="n">
-        <v>2.220696833459831e-14</v>
+        <v>2.219982206628899e-14</v>
       </c>
       <c r="G130" t="n">
-        <v>2.264788300069119e-08</v>
+        <v>2.219982206628899e-14</v>
       </c>
       <c r="H130" t="n">
-        <v>0.008570112463993321</v>
+        <v>0.0003699632236440031</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9655877202847524</v>
+        <v>0.9880763094155787</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -5214,32 +5214,32 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_102.fasta</t>
+          <t>label_UMGS520_12.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9944890018102447</v>
+        <v>0.9830471482764311</v>
       </c>
       <c r="C131" t="n">
-        <v>0.005013619505979828</v>
+        <v>7.792910136404257e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>8.970342055570147e-05</v>
+        <v>0.001526613669222628</v>
       </c>
       <c r="E131" t="n">
-        <v>1.91264468061357e-07</v>
+        <v>0.008039244183706527</v>
       </c>
       <c r="F131" t="n">
-        <v>2.219957316007273e-14</v>
+        <v>2.220455472798826e-14</v>
       </c>
       <c r="G131" t="n">
-        <v>2.219957316007273e-14</v>
+        <v>2.220455472798826e-14</v>
       </c>
       <c r="H131" t="n">
-        <v>0.0004074839987073142</v>
+        <v>0.007309064769231316</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9944890018102447</v>
+        <v>0.9830471482764311</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -5250,898 +5250,34 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000820725_114.fasta</t>
+          <t>label_UMGS520_72.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.990599569921536</v>
+        <v>0.8575361494721249</v>
       </c>
       <c r="C132" t="n">
-        <v>3.647643422659296e-05</v>
+        <v>0.005039288013775269</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00232081798803512</v>
+        <v>0.009613554284023182</v>
       </c>
       <c r="E132" t="n">
-        <v>2.333882469771774e-05</v>
+        <v>0.009989027843964828</v>
       </c>
       <c r="F132" t="n">
-        <v>2.220160323506344e-14</v>
+        <v>0.09838441788235279</v>
       </c>
       <c r="G132" t="n">
-        <v>2.220160323506344e-14</v>
+        <v>0.004018946364226193</v>
       </c>
       <c r="H132" t="n">
-        <v>0.007019796831460097</v>
+        <v>0.01541861613953286</v>
       </c>
       <c r="I132" t="n">
-        <v>0.990599569921536</v>
+        <v>0.8575361494721249</v>
       </c>
       <c r="J132" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_136.fasta</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.989607011137808</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.001152076880998927</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.007798952137147909</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.0001167883589418496</v>
-      </c>
-      <c r="F133" t="n">
-        <v>2.220073378422134e-14</v>
-      </c>
-      <c r="G133" t="n">
-        <v>2.220073378422134e-14</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.001325171485058895</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.989607011137808</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_16.fasta</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.9809735908955295</v>
-      </c>
-      <c r="C134" t="n">
-        <v>0.01402820034454138</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.002496751900334499</v>
-      </c>
-      <c r="E134" t="n">
-        <v>2.337336244195574e-05</v>
-      </c>
-      <c r="F134" t="n">
-        <v>2.220147179543142e-14</v>
-      </c>
-      <c r="G134" t="n">
-        <v>2.220147179543142e-14</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.002478083497108316</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.9809735908955295</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_41.fasta</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.9756585455446894</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.02272065263549439</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.001471435659418058</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.943633154035685e-05</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2.219742096566421e-14</v>
-      </c>
-      <c r="G135" t="n">
-        <v>2.219742096566421e-14</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.000129929828813404</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.9756585455446894</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_51.fasta</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.4137975725360677</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.01346774644096134</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.0418392398872157</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.005101708772055995</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.5173961464431781</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.004197234424286307</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.004200351496234821</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.5173961464431781</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>f__Dermabacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_66.fasta</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.998485665596657</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0006490623831813167</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.0002017905518326052</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.915739249154561e-07</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2.219889269944927e-14</v>
-      </c>
-      <c r="G137" t="n">
-        <v>2.219889269944927e-14</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.0006632898943597534</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.998485665596657</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000820725_77.fasta</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.9954679645135025</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.002977605694953196</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.0004424899980466517</v>
-      </c>
-      <c r="E138" t="n">
-        <v>3.675781183983659e-06</v>
-      </c>
-      <c r="F138" t="n">
-        <v>2.220054046196572e-14</v>
-      </c>
-      <c r="G138" t="n">
-        <v>2.220054046196572e-14</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.001108264012269075</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.9954679645135025</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1548_27.fasta</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.9771734016135618</v>
-      </c>
-      <c r="C139" t="n">
-        <v>6.326825527184875e-05</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.002649954468462381</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.0009057186541111922</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2.219793167299357e-14</v>
-      </c>
-      <c r="G139" t="n">
-        <v>2.219793167299357e-14</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.0192076570085486</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.9771734016135618</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1548_37.fasta</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.9880907370660602</v>
-      </c>
-      <c r="C140" t="n">
-        <v>5.488699161151531e-05</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.009514111662916656</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.001040776963884656</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.220008373971037e-14</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2.220008373971037e-14</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.001299487315482508</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.9880907370660602</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1548_45.fasta</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9625957967625035</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.0002569157125023331</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.01175058125760348</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.008299607706277126</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2.504583492975899e-14</v>
-      </c>
-      <c r="G141" t="n">
-        <v>2.557566956599013e-14</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.01709709856106303</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.9625957967625035</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1719_107.fasta</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.8996423241112647</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0.08887418860389679</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.01103589888172587</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.0004318057860370156</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2.220350123935817e-14</v>
-      </c>
-      <c r="G142" t="n">
-        <v>2.220350123935817e-14</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1.578261703131993e-05</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.8996423241112647</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1719_14.fasta</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0.9799627736708754</v>
-      </c>
-      <c r="C143" t="n">
-        <v>3.54088227950498e-05</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.01878129278709272</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.001220500349553197</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.219581294118651e-14</v>
-      </c>
-      <c r="G143" t="n">
-        <v>2.219581294118651e-14</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2.436963930828961e-08</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.9799627736708754</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1719_81.fasta</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.891014101331051</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.08566400548951335</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.01908425941349617</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.004234822408909402</v>
-      </c>
-      <c r="F144" t="n">
-        <v>2.221708441451981e-14</v>
-      </c>
-      <c r="G144" t="n">
-        <v>2.221708441451981e-14</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2.811356985713343e-06</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.891014101331051</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1731_15.fasta</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9757402493455106</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.01983458253120906</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.001399770918704624</v>
-      </c>
-      <c r="E145" t="n">
-        <v>4.525111019269203e-05</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2.220128341832615e-14</v>
-      </c>
-      <c r="G145" t="n">
-        <v>2.220128341832615e-14</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.002980146094338373</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.9757402493455106</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1731_61.fasta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9569647712645919</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.0132452117379869</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.003913509812704087</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.002166860247319851</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.01473148745666302</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.001704156140037126</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.007274003340697214</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.9569647712645919</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1934_130.fasta</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.541293982110386</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.2281485342239577</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.01936564607095881</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.005353118369548646</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.1979802323000159</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.003901766780160946</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.003956720144972075</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.541293982110386</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2071_33.fasta</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9861663054768721</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.001283834795580751</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.002990657694679892</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.007552900174141154</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2.220955561711389e-14</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2.220974333618612e-14</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0.002006301858681616</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0.9861663054768721</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS2071_54.fasta</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.8737397246636878</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.007334280092187667</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.01235456970521746</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.01153733009669336</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.08145493832007784</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.003818081293743675</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0.009761075828392233</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0.8737397246636878</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS402_21.fasta</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.9743547330163305</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.003387648389249875</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.002882561081592139</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.002592470983667299</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.009503747524067683</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.001408739863651093</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.005870099141441365</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.9743547330163305</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS492_35.fasta</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9893422337700449</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.006925186404539666</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.001280578875619679</v>
-      </c>
-      <c r="E151" t="n">
-        <v>7.500776413044827e-05</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.220072791341805e-14</v>
-      </c>
-      <c r="G151" t="n">
-        <v>2.220072791341805e-14</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0.002376993185620848</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.9893422337700449</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS492_48.fasta</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9896145159135999</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.002426259902389948</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.007310080823500334</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.0005012567915751016</v>
-      </c>
-      <c r="F152" t="n">
-        <v>2.219994449868179e-14</v>
-      </c>
-      <c r="G152" t="n">
-        <v>2.219994449868179e-14</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0.0001478865688901793</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0.9896145159135999</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS492_80.fasta</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9783309479151351</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.01575690994013184</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.002611787946529825</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.0001719108361135695</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2.220195318097318e-14</v>
-      </c>
-      <c r="G153" t="n">
-        <v>2.220195318097318e-14</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0.003128443362045331</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.9783309479151351</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS492_85.fasta</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9880763094155787</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.005519505593583184</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.00561584585329745</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.0004183759138523268</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2.219982206628899e-14</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2.219982206628899e-14</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0.0003699632236440031</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0.9880763094155787</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS520_12.fasta</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.9830471482764311</v>
-      </c>
-      <c r="C155" t="n">
-        <v>7.792910136404257e-05</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.001526613669222628</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.008039244183706527</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2.220455472798826e-14</v>
-      </c>
-      <c r="G155" t="n">
-        <v>2.220455472798826e-14</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0.007309064769231316</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0.9830471482764311</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS520_72.fasta</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.8575361494721249</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.005039288013775269</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.009613554284023182</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.009989027843964828</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0.09838441788235279</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.004018946364226193</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0.01541861613953286</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0.8575361494721249</v>
-      </c>
-      <c r="J156" t="inlineStr">
         <is>
           <t>f__Actinomycetaceae</t>
         </is>
@@ -6158,7 +5294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6401,104 +5537,104 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000741205_5.fasta</t>
+          <t>label_18048_1_93_4.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4487037588600781</v>
+        <v>0.07605113703352946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2886021694019111</v>
+        <v>0.9159845606422974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04534806346293207</v>
+        <v>0.006792319702798246</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004063547250074951</v>
+        <v>0.0002571299207275149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1834961675838043</v>
+        <v>2.219998629273546e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003462807313437613</v>
+        <v>2.219998629273546e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02632348612776187</v>
+        <v>0.0009148527006028611</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4487037588600781</v>
+        <v>0.9159845606422974</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_25.fasta</t>
+          <t>label_UMGS1405_19.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02064983877995814</v>
+        <v>0.5307059284704746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9615347973516573</v>
+        <v>0.4662823766419074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01648128715132699</v>
+        <v>0.002674117976388346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0004841903163552221</v>
+        <v>3.484522537460618e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>2.97372761325466e-14</v>
+        <v>2.22204369135884e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>3.132851246966518e-14</v>
+        <v>2.22204369135884e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008498864006412627</v>
+        <v>0.0003027316858104357</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9615347973516573</v>
+        <v>0.5307059284704746</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_38.fasta</t>
+          <t>label_UMGS1405_21.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1262370428383529</v>
+        <v>0.02649447274141414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8578451214234982</v>
+        <v>0.9693362532351002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0141729665659978</v>
+        <v>0.00414553278209297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001309478734147051</v>
+        <v>1.635008048444222e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>2.221946650387196e-14</v>
+        <v>2.21974387394078e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.221946650387196e-14</v>
+        <v>2.21974387394078e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001613921298691824</v>
+        <v>7.391160863738549e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8578451214234982</v>
+        <v>0.9693362532351002</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -6509,32 +5645,32 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_56.fasta</t>
+          <t>label_UMGS1405_61.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1360611103446468</v>
+        <v>0.03890528520157521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8568854702958851</v>
+        <v>0.9509185325510422</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006823621084220133</v>
+        <v>0.00955532060818531</v>
       </c>
       <c r="E10" t="n">
-        <v>6.912777441032404e-05</v>
+        <v>6.962363281083185e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>2.218923115676269e-14</v>
+        <v>2.220354476229566e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.218923115676269e-14</v>
+        <v>2.220354476229566e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001606705007933152</v>
+        <v>0.0005512380063420689</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8568854702958851</v>
+        <v>0.9509185325510422</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -6545,68 +5681,68 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_9.fasta</t>
+          <t>label_UMGS1405_84.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0003678181610982905</v>
+        <v>0.605071303060975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9919913325246572</v>
+        <v>0.3708506423427162</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007431504143021312</v>
+        <v>0.01574810688108012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001662025400807707</v>
+        <v>0.0004254237252487721</v>
       </c>
       <c r="F11" t="n">
-        <v>2.219888518954136e-14</v>
+        <v>2.220451627423268e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.219888518954136e-14</v>
+        <v>2.220451627423268e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>4.314263109799954e-05</v>
+        <v>0.007904523989935564</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9919913325246572</v>
+        <v>0.605071303060975</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_56.fasta</t>
+          <t>label_UMGS1527_107.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.306566208106776</v>
+        <v>0.1632127291410382</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6805710967345587</v>
+        <v>0.8265800025713212</v>
       </c>
       <c r="D12" t="n">
-        <v>0.008191717782189035</v>
+        <v>0.002560349607619795</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002189929627175741</v>
+        <v>0.005321058669563494</v>
       </c>
       <c r="F12" t="n">
-        <v>2.227126207297727e-14</v>
+        <v>2.220396267564851e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.227126207297727e-14</v>
+        <v>2.220396267564851e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004451984413714019</v>
+        <v>0.002325860010412864</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6805710967345587</v>
+        <v>0.8265800025713212</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -6617,68 +5753,68 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS603_13.fasta</t>
+          <t>label_UMGS1527_108.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003950806848492788</v>
+        <v>0.5791312645282006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9787569445237964</v>
+        <v>0.4083172886247691</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006784656979681285</v>
+        <v>0.009339093804468455</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002085201198783366</v>
+        <v>0.0003745085529405235</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220758310267264e-14</v>
+        <v>2.224546436535341e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.220758310267264e-14</v>
+        <v>2.224546436535341e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008422390449201836</v>
+        <v>0.002837844489576867</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9787569445237964</v>
+        <v>0.5791312645282006</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS603_7.fasta</t>
+          <t>label_UMGS74_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004889322267304284</v>
+        <v>0.0007602875260019125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9733099650006062</v>
+        <v>0.9642371096795449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005941560337559937</v>
+        <v>0.01592808413083668</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007300226930009214</v>
+        <v>0.002264829619692781</v>
       </c>
       <c r="F14" t="n">
-        <v>2.22097269949419e-14</v>
+        <v>2.220815801825992e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22097269949419e-14</v>
+        <v>2.220815801825992e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.008558925464476053</v>
+        <v>0.01680968904387937</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9733099650006062</v>
+        <v>0.9642371096795449</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -6689,32 +5825,32 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS74_21.fasta</t>
+          <t>label_GCF_000020425_0.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.04152536113120282</v>
+        <v>7.094490422575036e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8977063257835741</v>
+        <v>0.9895119432087732</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03187157529334153</v>
+        <v>0.002885810674860906</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0008388812629593597</v>
+        <v>0.006146086134930767</v>
       </c>
       <c r="F15" t="n">
-        <v>2.226725944604411e-14</v>
+        <v>2.220317432183054e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.226725944604411e-14</v>
+        <v>2.220317432183054e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02805785652887764</v>
+        <v>0.001385215077164935</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8977063257835741</v>
+        <v>0.9895119432087732</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -6725,32 +5861,32 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_18048_1_93_4.fasta</t>
+          <t>label_UMGS1405_40.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07605113703352946</v>
+        <v>0.0009881577359033161</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9159845606422974</v>
+        <v>0.9919467163129128</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006792319702798246</v>
+        <v>0.007026018890546235</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002571299207275149</v>
+        <v>4.811847568140379e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>2.219998629273546e-14</v>
+        <v>2.219947687716352e-14</v>
       </c>
       <c r="G16" t="n">
-        <v>2.219998629273546e-14</v>
+        <v>2.219947687716352e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009148527006028611</v>
+        <v>3.429521302516552e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9159845606422974</v>
+        <v>0.9919467163129128</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -6761,68 +5897,68 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_19.fasta</t>
+          <t>label_UMGS1527_101.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5307059284704746</v>
+        <v>0.03221876630551355</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4662823766419074</v>
+        <v>0.8259051805755292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002674117976388346</v>
+        <v>0.009878177192766485</v>
       </c>
       <c r="E17" t="n">
-        <v>3.484522537460618e-05</v>
+        <v>0.00422907553427113</v>
       </c>
       <c r="F17" t="n">
-        <v>2.22204369135884e-14</v>
+        <v>0.118130071164117</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22204369135884e-14</v>
+        <v>0.004118776233207683</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003027316858104357</v>
+        <v>0.005519952994595022</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5307059284704746</v>
+        <v>0.8259051805755292</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_21.fasta</t>
+          <t>label_UMGS1527_80.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02649447274141414</v>
+        <v>0.03352685646440569</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9693362532351002</v>
+        <v>0.8212726070111021</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00414553278209297</v>
+        <v>0.01224505041696032</v>
       </c>
       <c r="E18" t="n">
-        <v>1.635008048444222e-05</v>
+        <v>0.004116709462268894</v>
       </c>
       <c r="F18" t="n">
-        <v>2.21974387394078e-14</v>
+        <v>0.1200074359526346</v>
       </c>
       <c r="G18" t="n">
-        <v>2.21974387394078e-14</v>
+        <v>0.004111799340428726</v>
       </c>
       <c r="H18" t="n">
-        <v>7.391160863738549e-06</v>
+        <v>0.00471954135219984</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9693362532351002</v>
+        <v>0.8212726070111021</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -6833,32 +5969,32 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_61.fasta</t>
+          <t>label_UMGS603_19.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03890528520157521</v>
+        <v>0.0001148535961114759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9509185325510422</v>
+        <v>0.990250351735829</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00955532060818531</v>
+        <v>0.003804524161597161</v>
       </c>
       <c r="E19" t="n">
-        <v>6.962363281083185e-05</v>
+        <v>0.0002166431007335498</v>
       </c>
       <c r="F19" t="n">
-        <v>2.220354476229566e-14</v>
+        <v>2.220301440265377e-14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220354476229566e-14</v>
+        <v>2.220301440265377e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0005512380063420689</v>
+        <v>0.005613627405684257</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9509185325510422</v>
+        <v>0.990250351735829</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -6869,68 +6005,68 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_84.fasta</t>
+          <t>label_UMGS1405_37.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.605071303060975</v>
+        <v>0.02058768855876694</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3708506423427162</v>
+        <v>0.9680772593728741</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01574810688108012</v>
+        <v>0.01066869985511495</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0004254237252487721</v>
+        <v>0.0006659589059481583</v>
       </c>
       <c r="F20" t="n">
-        <v>2.220451627423268e-14</v>
+        <v>2.22080936629571e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220451627423268e-14</v>
+        <v>2.22080936629571e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0.007904523989935564</v>
+        <v>3.933072514550923e-07</v>
       </c>
       <c r="I20" t="n">
-        <v>0.605071303060975</v>
+        <v>0.9680772593728741</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_107.fasta</t>
+          <t>label_UMGS1405_7.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1632127291410382</v>
+        <v>0.001290184115736042</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8265800025713212</v>
+        <v>0.9932880206892735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002560349607619795</v>
+        <v>0.003514510760105897</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005321058669563494</v>
+        <v>0.001880762142970194</v>
       </c>
       <c r="F21" t="n">
-        <v>2.220396267564851e-14</v>
+        <v>2.220281677154117e-14</v>
       </c>
       <c r="G21" t="n">
-        <v>2.220396267564851e-14</v>
+        <v>2.220281677154117e-14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.002325860010412864</v>
+        <v>2.652229187002203e-05</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8265800025713212</v>
+        <v>0.9932880206892735</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -6941,32 +6077,32 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_108.fasta</t>
+          <t>label_UMGS1527_75.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5791312645282006</v>
+        <v>0.7454997147757665</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4083172886247691</v>
+        <v>0.02452618593686683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.009339093804468455</v>
+        <v>0.02165738166354605</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0003745085529405235</v>
+        <v>0.03767974409506947</v>
       </c>
       <c r="F22" t="n">
-        <v>2.224546436535341e-14</v>
+        <v>0.163094759538717</v>
       </c>
       <c r="G22" t="n">
-        <v>2.224546436535341e-14</v>
+        <v>0.003769012262275568</v>
       </c>
       <c r="H22" t="n">
-        <v>0.002837844489576867</v>
+        <v>0.003773201727758638</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5791312645282006</v>
+        <v>0.7454997147757665</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -6977,32 +6113,32 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS74_9.fasta</t>
+          <t>label_UMGS74_2.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0007602875260019125</v>
+        <v>0.003791372118752504</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9642371096795449</v>
+        <v>0.9789485674470549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01592808413083668</v>
+        <v>0.01127531714445892</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002264829619692781</v>
+        <v>0.005200775408337304</v>
       </c>
       <c r="F23" t="n">
-        <v>2.220815801825992e-14</v>
+        <v>2.220569836518913e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.220815801825992e-14</v>
+        <v>9.976134161522602e-11</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01680968904387937</v>
+        <v>0.0007839677816127394</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9642371096795449</v>
+        <v>0.9789485674470549</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -7013,68 +6149,68 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000020425_0.fasta</t>
+          <t>label_18048_1_93_5.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.094490422575036e-05</v>
+        <v>0.951406361164956</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9895119432087732</v>
+        <v>0.007092100169586744</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002885810674860906</v>
+        <v>0.005692308601446503</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006146086134930767</v>
+        <v>0.004211625939696892</v>
       </c>
       <c r="F24" t="n">
-        <v>2.220317432183054e-14</v>
+        <v>0.02565914379629035</v>
       </c>
       <c r="G24" t="n">
-        <v>2.220317432183054e-14</v>
+        <v>0.002866963361156132</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001385215077164935</v>
+        <v>0.003071496966867444</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9895119432087732</v>
+        <v>0.951406361164956</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>f__Bifidobacteriaceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1405_40.fasta</t>
+          <t>label_UMGS1405_27.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0009881577359033161</v>
+        <v>0.0005186508924580822</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9919467163129128</v>
+        <v>0.9967930640343146</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007026018890546235</v>
+        <v>0.00265763610015642</v>
       </c>
       <c r="E25" t="n">
-        <v>4.811847568140379e-06</v>
+        <v>3.021567883746249e-05</v>
       </c>
       <c r="F25" t="n">
-        <v>2.219947687716352e-14</v>
+        <v>2.21998494403482e-14</v>
       </c>
       <c r="G25" t="n">
-        <v>2.219947687716352e-14</v>
+        <v>2.21998494403482e-14</v>
       </c>
       <c r="H25" t="n">
-        <v>3.429521302516552e-05</v>
+        <v>4.332941892094226e-07</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9919467163129128</v>
+        <v>0.9967930640343146</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -7085,32 +6221,32 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_101.fasta</t>
+          <t>label_UMGS1405_65.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03221876630551355</v>
+        <v>0.002247730914537218</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8259051805755292</v>
+        <v>0.9901524379880121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.009878177192766485</v>
+        <v>0.0074371816980897</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00422907553427113</v>
+        <v>0.0001598972633468787</v>
       </c>
       <c r="F26" t="n">
-        <v>0.118130071164117</v>
+        <v>2.220148005249995e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004118776233207683</v>
+        <v>2.220148005249995e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0.005519952994595022</v>
+        <v>2.752135969711931e-06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8259051805755292</v>
+        <v>0.9901524379880121</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -7121,32 +6257,32 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1527_80.fasta</t>
+          <t>label_UMGS1527_8.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03352685646440569</v>
+        <v>3.511363520947583e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8212726070111021</v>
+        <v>0.9717189514654503</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01224505041696032</v>
+        <v>0.02696302837770589</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004116709462268894</v>
+        <v>0.001262485889711304</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1200074359526346</v>
+        <v>2.219121998022125e-14</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004111799340428726</v>
+        <v>2.219121998022125e-14</v>
       </c>
       <c r="H27" t="n">
-        <v>0.00471954135219984</v>
+        <v>2.042063187852415e-05</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8212726070111021</v>
+        <v>0.9717189514654503</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -7157,358 +6293,34 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS603_19.fasta</t>
+          <t>label_UMGS1527_95.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0001148535961114759</v>
+        <v>0.0004159405609396478</v>
       </c>
       <c r="C28" t="n">
-        <v>0.990250351735829</v>
+        <v>0.9871895720848144</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003804524161597161</v>
+        <v>0.01114441970986585</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0002166431007335498</v>
+        <v>0.001151750255037933</v>
       </c>
       <c r="F28" t="n">
-        <v>2.220301440265377e-14</v>
+        <v>2.219888632709977e-14</v>
       </c>
       <c r="G28" t="n">
-        <v>2.220301440265377e-14</v>
+        <v>2.219888632709977e-14</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005613627405684257</v>
+        <v>9.831738929787437e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>0.990250351735829</v>
+        <v>0.9871895720848144</v>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1405_37.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.02058768855876694</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.9680772593728741</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.01066869985511495</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0006659589059481583</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2.22080936629571e-14</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.22080936629571e-14</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.933072514550923e-07</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9680772593728741</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1405_7.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.001290184115736042</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9932880206892735</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.003514510760105897</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.001880762142970194</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.220281677154117e-14</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.220281677154117e-14</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.652229187002203e-05</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.9932880206892735</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1527_75.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.7454997147757665</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02452618593686683</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02165738166354605</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.03767974409506947</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.163094759538717</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.003769012262275568</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.003773201727758638</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.7454997147757665</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS74_2.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.003791372118752504</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.9789485674470549</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.01127531714445892</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.005200775408337304</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2.220569836518913e-14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>9.976134161522602e-11</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0007839677816127394</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.9789485674470549</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_18048_1_93_5.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.951406361164956</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.007092100169586744</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.005692308601446503</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.004211625939696892</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.02565914379629035</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.002866963361156132</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.003071496966867444</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.951406361164956</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>f__Actinomycetaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1405_27.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0005186508924580822</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9967930640343146</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.00265763610015642</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3.021567883746249e-05</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2.21998494403482e-14</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2.21998494403482e-14</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.332941892094226e-07</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.9967930640343146</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1405_65.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.002247730914537218</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.9901524379880121</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0074371816980897</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.0001598972633468787</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.220148005249995e-14</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.220148005249995e-14</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.752135969711931e-06</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.9901524379880121</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1527_8.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>3.511363520947583e-05</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.9717189514654503</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.02696302837770589</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.001262485889711304</v>
-      </c>
-      <c r="F36" t="n">
-        <v>2.219121998022125e-14</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.219121998022125e-14</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.042063187852415e-05</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.9717189514654503</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1527_95.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.0004159405609396478</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.9871895720848144</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.01114441970986585</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.001151750255037933</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2.219888632709977e-14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2.219888632709977e-14</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9.831738929787437e-05</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.9871895720848144</v>
-      </c>
-      <c r="J37" t="inlineStr">
         <is>
           <t>f__Bifidobacteriaceae</t>
         </is>
@@ -7525,7 +6337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7660,32 +6472,32 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_4.fasta</t>
+          <t>label_GCF_000285835_1.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003326379548251753</v>
+        <v>0.003439102650858818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002917310246568215</v>
+        <v>0.0003436819196021263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9112624223177933</v>
+        <v>0.9385809788951148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03907784643572822</v>
+        <v>0.04830695015833324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03279136130848684</v>
+        <v>5.633455575635777e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002864964693391635</v>
+        <v>5.633455575635778e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007759715449779974</v>
+        <v>0.009329286375978386</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9112624223177933</v>
+        <v>0.9385809788951148</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -7696,32 +6508,32 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_6.fasta</t>
+          <t>label_GCF_000285835_12.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004424073252622639</v>
+        <v>0.01880452148373155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003198935810498963</v>
+        <v>0.001549048592744495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9004171735667256</v>
+        <v>0.9281618160222769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03918541903181306</v>
+        <v>0.02449675676345224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04148702171938443</v>
+        <v>9.223484461386368e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003167764949430594</v>
+        <v>9.223484461386364e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008119611669524785</v>
+        <v>0.02698785713761018</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9004171735667256</v>
+        <v>0.9281618160222769</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -7732,32 +6544,32 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_7.fasta</t>
+          <t>label_GCF_000285835_3.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004616250936436306</v>
+        <v>0.005265852755269699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004227328671464312</v>
+        <v>0.0002633659534814765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8116329707918839</v>
+        <v>0.9445207247473086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04557011728696085</v>
+        <v>0.04544826388644659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1222442473163005</v>
+        <v>5.974235665372423e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004165612595744023</v>
+        <v>5.974235665372423e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.007543472401210114</v>
+        <v>0.004501792657374092</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8116329707918839</v>
+        <v>0.9445207247473086</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -7768,32 +6580,32 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_9.fasta</t>
+          <t>label_GCF_000285835_0.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.004038487344091284</v>
+        <v>0.00238387432015253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00337967514389208</v>
+        <v>0.002238859591508662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9102493750386759</v>
+        <v>0.966447496036432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03318684681025398</v>
+        <v>0.008827120524053794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03990850865164083</v>
+        <v>0.01501842481882384</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003228828984998477</v>
+        <v>0.002117486826902966</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006008278026447548</v>
+        <v>0.002966737882126215</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9102493750386759</v>
+        <v>0.966447496036432</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -7804,68 +6616,68 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_1.fasta</t>
+          <t>label_GCF_000285835_14.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003439102650858818</v>
+        <v>0.00606232909847553</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003436819196021263</v>
+        <v>0.02671775511483868</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9385809788951148</v>
+        <v>9.487447810760076e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04830695015833324</v>
+        <v>0.967110299636659</v>
       </c>
       <c r="F8" t="n">
-        <v>5.633455575635777e-14</v>
+        <v>2.21990945637419e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>5.633455575635778e-14</v>
+        <v>2.21990945637419e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009329286375978386</v>
+        <v>1.474167187469315e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9385809788951148</v>
+        <v>0.967110299636659</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>f__Brevibacteriaceae</t>
+          <t>f__Cellulomonadaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_12.fasta</t>
+          <t>label_GCF_000285835_5.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01880452148373155</v>
+        <v>0.002650153251554563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001549048592744495</v>
+        <v>0.002243100437251378</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9281618160222769</v>
+        <v>0.966946701274882</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02449675676345224</v>
+        <v>0.004792067125155236</v>
       </c>
       <c r="F9" t="n">
-        <v>9.223484461386368e-14</v>
+        <v>0.01525393155919076</v>
       </c>
       <c r="G9" t="n">
-        <v>9.223484461386364e-14</v>
+        <v>0.002116411236254436</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02698785713761018</v>
+        <v>0.005997635115711478</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9281618160222769</v>
+        <v>0.966946701274882</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -7876,68 +6688,68 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_3.fasta</t>
+          <t>label_GCF_000285835_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.005265852755269699</v>
+        <v>0.07515901507058252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002633659534814765</v>
+        <v>0.09575442511273557</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9445207247473086</v>
+        <v>0.09207807379189233</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04544826388644659</v>
+        <v>0.02811800293714883</v>
       </c>
       <c r="F10" t="n">
-        <v>5.974235665372423e-14</v>
+        <v>0.7003804477177932</v>
       </c>
       <c r="G10" t="n">
-        <v>5.974235665372423e-14</v>
+        <v>0.003737219945427609</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004501792657374092</v>
+        <v>0.004772815424420002</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9445207247473086</v>
+        <v>0.7003804477177932</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>f__Brevibacteriaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_0.fasta</t>
+          <t>label_GCF_000285835_2.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.00238387432015253</v>
+        <v>0.004643874383739629</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002238859591508662</v>
+        <v>0.003963366800669469</v>
       </c>
       <c r="D11" t="n">
-        <v>0.966447496036432</v>
+        <v>0.8318375804784571</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008827120524053794</v>
+        <v>0.0318094513171029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01501842481882384</v>
+        <v>0.1022549190768761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002117486826902966</v>
+        <v>0.003981042763053274</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002966737882126215</v>
+        <v>0.02150976518010134</v>
       </c>
       <c r="I11" t="n">
-        <v>0.966447496036432</v>
+        <v>0.8318375804784571</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -7948,68 +6760,68 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_14.fasta</t>
+          <t>label_GCF_000285835_8.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00606232909847553</v>
+        <v>0.004380620109172914</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02671775511483868</v>
+        <v>0.004160206555463695</v>
       </c>
       <c r="D12" t="n">
-        <v>9.487447810760076e-05</v>
+        <v>0.8146722038044236</v>
       </c>
       <c r="E12" t="n">
-        <v>0.967110299636659</v>
+        <v>0.03991342718430618</v>
       </c>
       <c r="F12" t="n">
-        <v>2.21990945637419e-14</v>
+        <v>0.1228295867407559</v>
       </c>
       <c r="G12" t="n">
-        <v>2.21990945637419e-14</v>
+        <v>0.004148153734854932</v>
       </c>
       <c r="H12" t="n">
-        <v>1.474167187469315e-05</v>
+        <v>0.009895801871022699</v>
       </c>
       <c r="I12" t="n">
-        <v>0.967110299636659</v>
+        <v>0.8146722038044236</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>f__Cellulomonadaceae</t>
+          <t>f__Brevibacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_5.fasta</t>
+          <t>label_GCF_000285835_10.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002650153251554563</v>
+        <v>0.009456475963522766</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002243100437251378</v>
+        <v>0.004334494953950802</v>
       </c>
       <c r="D13" t="n">
-        <v>0.966946701274882</v>
+        <v>0.744415121583713</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004792067125155236</v>
+        <v>0.02649383124152911</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01525393155919076</v>
+        <v>0.2066078247649667</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002116411236254436</v>
+        <v>0.004295234196874956</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005997635115711478</v>
+        <v>0.004397017295442747</v>
       </c>
       <c r="I13" t="n">
-        <v>0.966946701274882</v>
+        <v>0.744415121583713</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -8020,178 +6832,34 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000285835_11.fasta</t>
+          <t>label_GCF_000285835_13.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07515901507058252</v>
+        <v>0.7668262039170163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09575442511273557</v>
+        <v>0.2265886174046597</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09207807379189233</v>
+        <v>0.006408849043128549</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02811800293714883</v>
+        <v>0.0001465658367697789</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7003804477177932</v>
+        <v>2.22074207025192e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003737219945427609</v>
+        <v>2.22074207025192e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004772815424420002</v>
+        <v>2.976379838122097e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7003804477177932</v>
+        <v>0.7668262039170163</v>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>f__Dermabacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000285835_2.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.004643874383739629</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.003963366800669469</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.8318375804784571</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0318094513171029</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1022549190768761</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.003981042763053274</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.02150976518010134</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.8318375804784571</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>f__Brevibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000285835_8.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.004380620109172914</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.004160206555463695</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.8146722038044236</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.03991342718430618</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.1228295867407559</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.004148153734854932</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.009895801871022699</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.8146722038044236</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>f__Brevibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000285835_10.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.009456475963522766</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.004334494953950802</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.744415121583713</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02649383124152911</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2066078247649667</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.004295234196874956</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.004397017295442747</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.744415121583713</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>f__Brevibacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000285835_13.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.7668262039170163</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2265886174046597</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.006408849043128549</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0001465658367697789</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2.22074207025192e-14</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.22074207025192e-14</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.976379838122097e-05</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.7668262039170163</v>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>f__Actinomycetaceae</t>
         </is>
@@ -8208,7 +6876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8451,32 +7119,32 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_0.fasta</t>
+          <t>label_GCF_000312125_3.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008764805349658766</v>
+        <v>0.0224380781066117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004173360874409405</v>
+        <v>0.01578993441884064</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005048098896962746</v>
+        <v>0.02691886360609328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9057450831982754</v>
+        <v>0.9214911656128729</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04638901925325913</v>
+        <v>4.954880035254818e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003322692824453218</v>
+        <v>4.954880035254817e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02655693960298135</v>
+        <v>0.01336195825548229</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9057450831982754</v>
+        <v>0.9214911656128729</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -8487,32 +7155,32 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_1.fasta</t>
+          <t>label_GCF_000312125_4.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.004841413944079508</v>
+        <v>0.03761045496481827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004392306569527404</v>
+        <v>0.02340663678638483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02422981205307661</v>
+        <v>0.04701270188657346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7413633094337566</v>
+        <v>0.85925399183344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2124896557721478</v>
+        <v>7.284699153769924e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004311227912370221</v>
+        <v>7.284699153769924e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00837227431504186</v>
+        <v>0.03271621452863762</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7413633094337566</v>
+        <v>0.85925399183344</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -8523,32 +7191,32 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_3.fasta</t>
+          <t>label_GCF_900046455_2.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0224380781066117</v>
+        <v>0.001112862940087573</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01578993441884064</v>
+        <v>7.734745979918224e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02691886360609328</v>
+        <v>0.04542281248196297</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9214911656128729</v>
+        <v>0.9488303466960211</v>
       </c>
       <c r="F9" t="n">
-        <v>4.954880035254818e-14</v>
+        <v>3.945531257377548e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>4.954880035254817e-14</v>
+        <v>3.945531257377544e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01336195825548229</v>
+        <v>0.004556630422050349</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9214911656128729</v>
+        <v>0.9488303466960211</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -8559,32 +7227,32 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_4.fasta</t>
+          <t>label_GCF_000312005_0.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03761045496481827</v>
+        <v>3.981132972923658e-07</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02340663678638483</v>
+        <v>0.0006838145032166432</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04701270188657346</v>
+        <v>0.0008352872278689568</v>
       </c>
       <c r="E10" t="n">
-        <v>0.85925399183344</v>
+        <v>0.8861260644581568</v>
       </c>
       <c r="F10" t="n">
-        <v>7.284699153769924e-14</v>
+        <v>2.216823956079005e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>7.284699153769924e-14</v>
+        <v>2.216823956079005e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03271621452863762</v>
+        <v>0.1123544356974158</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85925399183344</v>
+        <v>0.8861260644581568</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -8595,32 +7263,32 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_2.fasta</t>
+          <t>label_GCF_900046455_5.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001112862940087573</v>
+        <v>6.376071346125454e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>7.734745979918224e-05</v>
+        <v>0.0004581585644391507</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04542281248196297</v>
+        <v>0.02029817213620471</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9488303466960211</v>
+        <v>0.9623586553457147</v>
       </c>
       <c r="F11" t="n">
-        <v>3.945531257377548e-14</v>
+        <v>2.220452009446843e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>3.945531257377544e-14</v>
+        <v>2.220452009446843e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004556630422050349</v>
+        <v>0.0168212532401357</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9488303466960211</v>
+        <v>0.9623586553457147</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -8631,104 +7299,104 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312005_0.fasta</t>
+          <t>label_GCF_000312125_5.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.981132972923658e-07</v>
+        <v>0.005773862425731762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0006838145032166432</v>
+        <v>0.009165849696527237</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0008352872278689568</v>
+        <v>0.2277033645263152</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8861260644581568</v>
+        <v>0.2031396018816721</v>
       </c>
       <c r="F12" t="n">
-        <v>2.216823956079005e-14</v>
+        <v>0.500461277243893</v>
       </c>
       <c r="G12" t="n">
-        <v>2.216823956079005e-14</v>
+        <v>0.01487070047478742</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1123544356974158</v>
+        <v>0.03888534375107323</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8861260644581568</v>
+        <v>0.500461277243893</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>f__Cellulomonadaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_5.fasta</t>
+          <t>label_GCF_900046455_3.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.376071346125454e-05</v>
+        <v>0.004640474556903878</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004581585644391507</v>
+        <v>0.004381542697416043</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02029817213620471</v>
+        <v>0.02198899514289778</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9623586553457147</v>
+        <v>0.3732679567270999</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220452009446843e-14</v>
+        <v>0.5825476286671371</v>
       </c>
       <c r="G13" t="n">
-        <v>2.220452009446843e-14</v>
+        <v>0.005735287000080568</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0168212532401357</v>
+        <v>0.007438115208464835</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9623586553457147</v>
+        <v>0.5825476286671371</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>f__Cellulomonadaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_5.fasta</t>
+          <t>label_GCF_900046455_4.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.005773862425731762</v>
+        <v>0.004759921879158919</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009165849696527237</v>
+        <v>0.004428655835458338</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2277033645263152</v>
+        <v>0.02435612486816131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2031396018816721</v>
+        <v>0.4861436749938458</v>
       </c>
       <c r="F14" t="n">
-        <v>0.500461277243893</v>
+        <v>0.4703591626491065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01487070047478742</v>
+        <v>0.004717436495497205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03888534375107323</v>
+        <v>0.005235023278771941</v>
       </c>
       <c r="I14" t="n">
-        <v>0.500461277243893</v>
+        <v>0.4861436749938458</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -8739,32 +7407,32 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_3.fasta</t>
+          <t>label_GCF_900046455_6.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004640474556903878</v>
+        <v>0.004562092877532078</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004381542697416043</v>
+        <v>0.004359890371354955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02198899514289778</v>
+        <v>0.0315751765616322</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3732679567270999</v>
+        <v>0.3934008107274521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5825476286671371</v>
+        <v>0.5537737168046932</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005735287000080568</v>
+        <v>0.00472489508405373</v>
       </c>
       <c r="H15" t="n">
-        <v>0.007438115208464835</v>
+        <v>0.007603417573281624</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5825476286671371</v>
+        <v>0.5537737168046932</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -8775,250 +7443,178 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_4.fasta</t>
+          <t>label_GCF_000312005_1.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.004759921879158919</v>
+        <v>0.9269837346552389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004428655835458338</v>
+        <v>0.004546213385023598</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02435612486816131</v>
+        <v>0.01104868725675449</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4861436749938458</v>
+        <v>0.007834781681504283</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4703591626491065</v>
+        <v>0.04225156570181721</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004717436495497205</v>
+        <v>0.003470733673307006</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005235023278771941</v>
+        <v>0.00386428364635456</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4861436749938458</v>
+        <v>0.9269837346552389</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_900046455_6.fasta</t>
+          <t>label_GCF_000312125_1.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004562092877532078</v>
+        <v>0.0064912085474277</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004359890371354955</v>
+        <v>0.004393823653832399</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0315751765616322</v>
+        <v>0.02948082933131044</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3934008107274521</v>
+        <v>0.8172540456639208</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5537737168046932</v>
+        <v>0.1337028841814225</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00472489508405373</v>
+        <v>0.004302525234503923</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007603417573281624</v>
+        <v>0.004374683387582266</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5537737168046932</v>
+        <v>0.8172540456639208</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Cellulomonadaceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312005_1.fasta</t>
+          <t>label_GCF_000312125_2.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9269837346552389</v>
+        <v>0.00673965121531972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004546213385023598</v>
+        <v>0.004461767600222821</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01104868725675449</v>
+        <v>0.02519817796663249</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007834781681504283</v>
+        <v>0.7851904165314239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04225156570181721</v>
+        <v>0.169616578845084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003470733673307006</v>
+        <v>0.004355115317962858</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00386428364635456</v>
+        <v>0.004438292523354347</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9269837346552389</v>
+        <v>0.7851904165314239</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Cellulomonadaceae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_1.fasta</t>
+          <t>label_GCF_900046455_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0064912085474277</v>
+        <v>0.01666750180556924</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004393823653832399</v>
+        <v>0.5176828099271318</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02948082933131044</v>
+        <v>0.01469941683811196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8172540456639208</v>
+        <v>0.04028369527282449</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1337028841814225</v>
+        <v>0.402734481873017</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004302525234503923</v>
+        <v>0.003925538935299848</v>
       </c>
       <c r="H19" t="n">
-        <v>0.004374683387582266</v>
+        <v>0.00400655534804589</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8172540456639208</v>
+        <v>0.5176828099271318</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>f__Cellulomonadaceae</t>
+          <t>f__Bifidobacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000312125_2.fasta</t>
+          <t>label_GCF_900046455_7.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00673965121531972</v>
+        <v>0.004683805990514696</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004461767600222821</v>
+        <v>0.004306863422776759</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02519817796663249</v>
+        <v>0.03825814287779717</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7851904165314239</v>
+        <v>0.8080069697050573</v>
       </c>
       <c r="F20" t="n">
-        <v>0.169616578845084</v>
+        <v>0.1350149474222374</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004355115317962858</v>
+        <v>0.004287223860298306</v>
       </c>
       <c r="H20" t="n">
-        <v>0.004438292523354347</v>
+        <v>0.005442046721318467</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7851904165314239</v>
+        <v>0.8080069697050573</v>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>f__Cellulomonadaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900046455_0.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.01666750180556924</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5176828099271318</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.01469941683811196</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.04028369527282449</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.402734481873017</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.003925538935299848</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.00400655534804589</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.5176828099271318</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>f__Bifidobacteriaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_900046455_7.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.004683805990514696</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.004306863422776759</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.03825814287779717</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.8080069697050573</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1350149474222374</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.004287223860298306</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.005442046721318467</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.8080069697050573</v>
-      </c>
-      <c r="J22" t="inlineStr">
         <is>
           <t>f__Cellulomonadaceae</t>
         </is>
@@ -9142,7 +7738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9277,68 +7873,68 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_6.fasta</t>
+          <t>label_GCF_000826525_2.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006641782842117514</v>
+        <v>0.1509361582322909</v>
       </c>
       <c r="C4" t="n">
-        <v>2.23399739551348e-05</v>
+        <v>0.1375912710830723</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004565723070314372</v>
+        <v>0.1607784046147188</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02906423993212694</v>
+        <v>0.1393117910093648</v>
       </c>
       <c r="F4" t="n">
-        <v>2.219630419446403e-14</v>
+        <v>0.1367480408651862</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9653727096607864</v>
+        <v>0.1367480408651862</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0003108090785832984</v>
+        <v>0.1378862933301808</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9653727096607864</v>
+        <v>0.1607784046147188</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>f__Dermatophilaceae</t>
+          <t>f__Brevibacteriaceae</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_7.fasta</t>
+          <t>label_GCF_000826525_3.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007807304595749334</v>
+        <v>0.002053247762828653</v>
       </c>
       <c r="C5" t="n">
-        <v>2.516640572749273e-05</v>
+        <v>0.000152917457094364</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003398315747502165</v>
+        <v>0.01380128789827096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02351811360495794</v>
+        <v>0.006418027729286509</v>
       </c>
       <c r="F5" t="n">
-        <v>2.219662592888929e-14</v>
+        <v>2.220462195995454e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9717110180096384</v>
+        <v>0.9773826471710181</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005666557725769372</v>
+        <v>0.0001918719814792649</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9717110180096384</v>
+        <v>0.9773826471710181</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -9349,68 +7945,68 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_2.fasta</t>
+          <t>label_GCF_000826525_8.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1509361582322909</v>
+        <v>0.0002909482195281943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1375912710830723</v>
+        <v>7.636483733353773e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1607784046147188</v>
+        <v>0.01198336342698345</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1393117910093648</v>
+        <v>0.01835527225200973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1367480408651862</v>
+        <v>2.2208051422926e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1367480408651862</v>
+        <v>0.969165011360288</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1378862933301808</v>
+        <v>0.000129039903834948</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1607784046147188</v>
+        <v>0.969165011360288</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>f__Brevibacteriaceae</t>
+          <t>f__Dermatophilaceae</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_3.fasta</t>
+          <t>label_GCF_000826525_10.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002053247762828653</v>
+        <v>0.001089582173185141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000152917457094364</v>
+        <v>0.0003975727025331197</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01380128789827096</v>
+        <v>0.008748754439895449</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006418027729286509</v>
+        <v>0.0008946927896083141</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220462195995454e-14</v>
+        <v>2.220053483881204e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9773826471710181</v>
+        <v>0.9886235675045253</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001918719814792649</v>
+        <v>0.0002458303902303934</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9773826471710181</v>
+        <v>0.9886235675045253</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -9421,32 +8017,32 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_8.fasta</t>
+          <t>label_GCF_000826525_11.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002909482195281943</v>
+        <v>0.0004637098746352414</v>
       </c>
       <c r="C8" t="n">
-        <v>7.636483733353773e-05</v>
+        <v>0.0001472180928691909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01198336342698345</v>
+        <v>0.004280343894956856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01835527225200973</v>
+        <v>0.00902994427142155</v>
       </c>
       <c r="F8" t="n">
-        <v>2.2208051422926e-14</v>
+        <v>2.220310166524787e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>0.969165011360288</v>
+        <v>0.9854450607187766</v>
       </c>
       <c r="H8" t="n">
-        <v>0.000129039903834948</v>
+        <v>0.0006337231473185145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.969165011360288</v>
+        <v>0.9854450607187766</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -9457,32 +8053,32 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_10.fasta</t>
+          <t>label_GCF_000826525_4.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001089582173185141</v>
+        <v>0.000626309372314468</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003975727025331197</v>
+        <v>0.0001771297691740985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.008748754439895449</v>
+        <v>0.004702796968667385</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0008946927896083141</v>
+        <v>0.009563905802413048</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220053483881204e-14</v>
+        <v>2.220364463836788e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9886235675045253</v>
+        <v>0.9845972276156449</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002458303902303934</v>
+        <v>0.0003326304717638641</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9886235675045253</v>
+        <v>0.9845972276156449</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -9493,32 +8089,32 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_11.fasta</t>
+          <t>label_GCF_000826525_5.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0004637098746352414</v>
+        <v>0.0002288909544657026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001472180928691909</v>
+        <v>0.0003493140663166545</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004280343894956856</v>
+        <v>0.005461303546617178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00902994427142155</v>
+        <v>0.0049673064277833</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220310166524787e-14</v>
+        <v>2.22037767211201e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9854450607187766</v>
+        <v>0.9886783170958642</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006337231473185145</v>
+        <v>0.0003148679089306941</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9854450607187766</v>
+        <v>0.9886783170958642</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -9529,32 +8125,32 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_4.fasta</t>
+          <t>label_GCF_000826525_0.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000626309372314468</v>
+        <v>0.002178346190122749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001771297691740985</v>
+        <v>6.93230961485988e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004702796968667385</v>
+        <v>0.006609227604460334</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009563905802413048</v>
+        <v>0.02346887699067789</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220364463836788e-14</v>
+        <v>2.220413505486758e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9845972276156449</v>
+        <v>0.9677193470157074</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003326304717638641</v>
+        <v>2.350896804799152e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9845972276156449</v>
+        <v>0.9677193470157074</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -9565,32 +8161,32 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_5.fasta</t>
+          <t>label_GCF_000826525_1.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0002288909544657026</v>
+        <v>0.00160966029330915</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003493140663166545</v>
+        <v>4.737509076298737e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005461303546617178</v>
+        <v>0.0145208459736431</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0049673064277833</v>
+        <v>0.008765544827360366</v>
       </c>
       <c r="F12" t="n">
-        <v>2.22037767211201e-14</v>
+        <v>2.220730676602658e-14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9886783170958642</v>
+        <v>0.974904432259001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003148679089306941</v>
+        <v>0.0001947791375877624</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9886783170958642</v>
+        <v>0.974904432259001</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -9601,32 +8197,32 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_0.fasta</t>
+          <t>label_GCF_000826525_12.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002178346190122749</v>
+        <v>0.0005642417942950239</v>
       </c>
       <c r="C13" t="n">
-        <v>6.93230961485988e-07</v>
+        <v>2.591818481970737e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006609227604460334</v>
+        <v>0.008206702843241509</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02346887699067789</v>
+        <v>0.01067798301849773</v>
       </c>
       <c r="F13" t="n">
-        <v>2.220413505486758e-14</v>
+        <v>2.220595616411322e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9677193470157074</v>
+        <v>0.9804566137821876</v>
       </c>
       <c r="H13" t="n">
-        <v>2.350896804799152e-05</v>
+        <v>6.854037693624215e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9677193470157074</v>
+        <v>0.9804566137821876</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -9637,106 +8233,34 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_GCF_000826525_1.fasta</t>
+          <t>label_GCF_000826525_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00160966029330915</v>
+        <v>0.0002924902342123593</v>
       </c>
       <c r="C14" t="n">
-        <v>4.737509076298737e-06</v>
+        <v>3.419904404944674e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0145208459736431</v>
+        <v>0.009494194366540271</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008765544827360366</v>
+        <v>0.01050965458331342</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220730676602658e-14</v>
+        <v>2.220594473847056e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.974904432259001</v>
+        <v>0.9795371616411003</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001947791375877624</v>
+        <v>0.0001323001307621365</v>
       </c>
       <c r="I14" t="n">
-        <v>0.974904432259001</v>
+        <v>0.9795371616411003</v>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>f__Dermatophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826525_12.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.0005642417942950239</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.591818481970737e-05</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.008206702843241509</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.01067798301849773</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.220595616411322e-14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9804566137821876</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6.854037693624215e-05</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.9804566137821876</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>f__Dermatophilaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000826525_9.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.0002924902342123593</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.419904404944674e-05</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.009494194366540271</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.01050965458331342</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.220594473847056e-14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9795371616411003</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.0001323001307621365</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9795371616411003</v>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>f__Dermatophilaceae</t>
         </is>
@@ -9753,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9960,32 +8484,32 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_3_5.fasta</t>
+          <t>label_UMGS928_119.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0005912708252844287</v>
+        <v>0.3110743732512598</v>
       </c>
       <c r="C6" t="n">
-        <v>7.049394460648926e-05</v>
+        <v>0.003164840816142335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03572188602224113</v>
+        <v>0.04118743099423206</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05072712558758042</v>
+        <v>0.02095528060455447</v>
       </c>
       <c r="F6" t="n">
-        <v>2.222146882785165e-14</v>
+        <v>3.243349727334774e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.222146882785165e-14</v>
+        <v>3.243349727334775e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9128892236202431</v>
+        <v>0.6236180743337464</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9128892236202431</v>
+        <v>0.6236180743337464</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -9996,32 +8520,32 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_116.fasta</t>
+          <t>label_UMGS928_120.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5189999895465038</v>
+        <v>0.8543457866358647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005875018069202898</v>
+        <v>0.02709868630999858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01929174316277269</v>
+        <v>0.01507386636086525</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004000407540973461</v>
+        <v>0.00040098569399812</v>
       </c>
       <c r="F7" t="n">
-        <v>2.222243231696112e-14</v>
+        <v>2.220441675350698e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.222243231696112e-14</v>
+        <v>2.220441675350698e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4518328416805027</v>
+        <v>0.1030806749992288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5189999895465038</v>
+        <v>0.8543457866358647</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -10032,68 +8556,68 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_117.fasta</t>
+          <t>label_UMGS928_93.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1245821572207922</v>
+        <v>0.512330003421504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00530266781904616</v>
+        <v>0.03505109331988612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03471527094589332</v>
+        <v>0.172894634980671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01966085124973712</v>
+        <v>0.06859919282687625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4467988334291782</v>
+        <v>1.626243941266985e-13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00365039918363586</v>
+        <v>1.626243941266986e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>0.365289820151717</v>
+        <v>0.2111250754507373</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4467988334291782</v>
+        <v>0.512330003421504</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>f__Dermabacteraceae</t>
+          <t>f__Actinomycetaceae</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_18.fasta</t>
+          <t>label_20298_2_3_12.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06026359694266482</v>
+        <v>0.0129594747264441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000963815540046758</v>
+        <v>0.0007445826182827729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01324843099788519</v>
+        <v>0.006898865981634148</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03234488680501475</v>
+        <v>0.0009256246634133327</v>
       </c>
       <c r="F9" t="n">
-        <v>2.480335576313604e-14</v>
+        <v>2.233737732233386e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.528178123176108e-14</v>
+        <v>2.235106690195029e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8931792697143385</v>
+        <v>0.9784714520101809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8931792697143385</v>
+        <v>0.9784714520101809</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -10104,32 +8628,32 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_119.fasta</t>
+          <t>label_UMGS928_11.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3110743732512598</v>
+        <v>0.01189414974786515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003164840816142335</v>
+        <v>0.01286375580760324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04118743099423206</v>
+        <v>0.006643374908614557</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02095528060455447</v>
+        <v>0.001068078377248442</v>
       </c>
       <c r="F10" t="n">
-        <v>3.243349727334774e-14</v>
+        <v>2.220920255493459e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>3.243349727334775e-14</v>
+        <v>2.220937890362044e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6236180743337464</v>
+        <v>0.9675306411586242</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6236180743337464</v>
+        <v>0.9675306411586242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -10140,104 +8664,104 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_120.fasta</t>
+          <t>label_UMGS928_57.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8543457866358647</v>
+        <v>0.1195113454642087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02709868630999858</v>
+        <v>0.0137009522030494</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01507386636086525</v>
+        <v>0.0166156490280748</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00040098569399812</v>
+        <v>0.003156485038092519</v>
       </c>
       <c r="F11" t="n">
-        <v>2.220441675350698e-14</v>
+        <v>0.06339661118018997</v>
       </c>
       <c r="G11" t="n">
-        <v>2.220441675350698e-14</v>
+        <v>0.003123911647583205</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1030806749992288</v>
+        <v>0.7804950454388012</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8543457866358647</v>
+        <v>0.7804950454388012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Micrococcaceae</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_93.fasta</t>
+          <t>label_UMGS928_66.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.512330003421504</v>
+        <v>0.06006181157170586</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03505109331988612</v>
+        <v>0.008309655080744804</v>
       </c>
       <c r="D12" t="n">
-        <v>0.172894634980671</v>
+        <v>0.01703551204101496</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06859919282687625</v>
+        <v>0.003573463154971021</v>
       </c>
       <c r="F12" t="n">
-        <v>1.626243941266985e-13</v>
+        <v>0.07184526318416069</v>
       </c>
       <c r="G12" t="n">
-        <v>1.626243941266986e-13</v>
+        <v>0.00347600124216764</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2111250754507373</v>
+        <v>0.8356982937252351</v>
       </c>
       <c r="I12" t="n">
-        <v>0.512330003421504</v>
+        <v>0.8356982937252351</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>f__Actinomycetaceae</t>
+          <t>f__Micrococcaceae</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_3_12.fasta</t>
+          <t>label_UMGS928_83.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0129594747264441</v>
+        <v>0.08772898313421976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007445826182827729</v>
+        <v>0.006141019768046572</v>
       </c>
       <c r="D13" t="n">
-        <v>0.006898865981634148</v>
+        <v>0.01593876143260285</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0009256246634133327</v>
+        <v>0.003586289976705913</v>
       </c>
       <c r="F13" t="n">
-        <v>2.233737732233386e-14</v>
+        <v>0.05503515975505352</v>
       </c>
       <c r="G13" t="n">
-        <v>2.235106690195029e-14</v>
+        <v>0.003155974245179073</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9784714520101809</v>
+        <v>0.8284138116881923</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9784714520101809</v>
+        <v>0.8284138116881923</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -10248,32 +8772,32 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_11.fasta</t>
+          <t>label_20298_2_3_3.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01189414974786515</v>
+        <v>0.0001027943052469912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01286375580760324</v>
+        <v>5.39812229669093e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.006643374908614557</v>
+        <v>0.01170533071395612</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001068078377248442</v>
+        <v>0.02420800246379595</v>
       </c>
       <c r="F14" t="n">
-        <v>2.220920255493459e-14</v>
+        <v>2.221129321265674e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.220937890362044e-14</v>
+        <v>0.002665172136415225</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9675306411586242</v>
+        <v>0.9613133022582667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9675306411586242</v>
+        <v>0.9613133022582667</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -10284,32 +8808,32 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_57.fasta</t>
+          <t>label_UMGS928_1.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1195113454642087</v>
+        <v>0.06922758168798364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0137009522030494</v>
+        <v>0.0006100428289368508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0166156490280748</v>
+        <v>0.000923064148300214</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003156485038092519</v>
+        <v>0.05380922052628821</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06339661118018997</v>
+        <v>2.223368924289174e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003123911647583205</v>
+        <v>2.223368924289174e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7804950454388012</v>
+        <v>0.8754300908084466</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7804950454388012</v>
+        <v>0.8754300908084466</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -10320,32 +8844,32 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_66.fasta</t>
+          <t>label_UMGS928_25.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06006181157170586</v>
+        <v>0.08240129839914984</v>
       </c>
       <c r="C16" t="n">
-        <v>0.008309655080744804</v>
+        <v>0.005805804791149974</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01703551204101496</v>
+        <v>0.009319827803339337</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003573463154971021</v>
+        <v>0.01500651998191528</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07184526318416069</v>
+        <v>0.1192234697106446</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00347600124216764</v>
+        <v>0.003714691707797779</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8356982937252351</v>
+        <v>0.7645283876060032</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8356982937252351</v>
+        <v>0.7645283876060032</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -10356,68 +8880,68 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_83.fasta</t>
+          <t>label_20298_2_3_13.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08772898313421976</v>
+        <v>0.04012945695769977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006141019768046572</v>
+        <v>0.05125325260820807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01593876143260285</v>
+        <v>0.1363428161204001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003586289976705913</v>
+        <v>0.02810835532313678</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05503515975505352</v>
+        <v>0.7355848717709677</v>
       </c>
       <c r="G17" t="n">
-        <v>0.003155974245179073</v>
+        <v>0.003829861703985396</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8284138116881923</v>
+        <v>0.00475138551560232</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8284138116881923</v>
+        <v>0.7355848717709677</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>f__Micrococcaceae</t>
+          <t>f__Dermabacteraceae</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_20298_2_3_3.fasta</t>
+          <t>label_20298_2_3_6.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001027943052469912</v>
+        <v>0.0002389897307860052</v>
       </c>
       <c r="C18" t="n">
-        <v>5.39812229669093e-06</v>
+        <v>0.0006850707791194075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01170533071395612</v>
+        <v>0.01885077155397046</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02420800246379595</v>
+        <v>0.0106448182261394</v>
       </c>
       <c r="F18" t="n">
-        <v>2.221129321265674e-14</v>
+        <v>2.22075126219105e-14</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002665172136415225</v>
+        <v>2.22075126219105e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9613133022582667</v>
+        <v>0.9695803497099403</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9613133022582667</v>
+        <v>0.9695803497099403</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -10428,32 +8952,32 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_1.fasta</t>
+          <t>label_UMGS928_29.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06922758168798364</v>
+        <v>0.04945085412624488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0006100428289368508</v>
+        <v>0.00693783733622378</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000923064148300214</v>
+        <v>0.006309018825151474</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05380922052628821</v>
+        <v>0.007627187099661958</v>
       </c>
       <c r="F19" t="n">
-        <v>2.223368924289174e-14</v>
+        <v>0.4169697514599462</v>
       </c>
       <c r="G19" t="n">
-        <v>2.223368924289174e-14</v>
+        <v>0.004099055239356079</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8754300908084466</v>
+        <v>0.5086062959134156</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8754300908084466</v>
+        <v>0.5086062959134156</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -10464,178 +8988,34 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS928_25.fasta</t>
+          <t>label_UMGS928_80.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.08240129839914984</v>
+        <v>0.09238600752944</v>
       </c>
       <c r="C20" t="n">
-        <v>0.005805804791149974</v>
+        <v>0.004106155825344174</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009319827803339337</v>
+        <v>0.02078918268102802</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01500651998191528</v>
+        <v>0.01376324363451274</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1192234697106446</v>
+        <v>0.6523340326202592</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003714691707797779</v>
+        <v>0.003946647864406911</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7645283876060032</v>
+        <v>0.212674729845009</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7645283876060032</v>
+        <v>0.6523340326202592</v>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>f__Micrococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_3_13.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.04012945695769977</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.05125325260820807</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1363428161204001</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.02810835532313678</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7355848717709677</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.003829861703985396</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.00475138551560232</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.7355848717709677</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>f__Dermabacteraceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_20298_2_3_6.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0002389897307860052</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0006850707791194075</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.01885077155397046</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0106448182261394</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2.22075126219105e-14</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.22075126219105e-14</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9695803497099403</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9695803497099403</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>f__Micrococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS928_29.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.04945085412624488</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.00693783733622378</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.006309018825151474</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.007627187099661958</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.4169697514599462</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.004099055239356079</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.5086062959134156</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.5086062959134156</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>f__Micrococcaceae</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS928_80.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.09238600752944</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.004106155825344174</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.02078918268102802</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.01376324363451274</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.6523340326202592</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.003946647864406911</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.212674729845009</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.6523340326202592</v>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>f__Dermabacteraceae</t>
         </is>
